--- a/REGULAR/OJT/NEW DONE/ALEGA, ESTELITA.xlsx
+++ b/REGULAR/OJT/NEW DONE/ALEGA, ESTELITA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B2FAD8-4BF2-46D6-AA0E-2F6660001ACC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -45,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="995" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="567">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1754,11 +1753,14 @@
   <si>
     <t>5/24-28,30/6/1-4/2011</t>
   </si>
+  <si>
+    <t>5/8-12/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2414,7 +2416,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2460,26 +2461,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K707" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K707" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K707" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K707"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2786,34 +2787,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K707"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3516" topLeftCell="A661" activePane="bottomLeft"/>
+      <pane ySplit="3510" topLeftCell="A661" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="E668" sqref="E668"/>
+      <selection pane="bottomLeft" activeCell="B676" sqref="B676"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2836,7 +2837,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2858,7 +2859,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2880,7 +2881,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2888,7 +2889,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2901,7 +2902,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2918,7 +2919,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2972,12 +2973,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>23.129999999999995</v>
+        <v>18.129999999999995</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="49" t="s">
         <v>536</v>
       </c>
@@ -2992,7 +2993,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>36601</v>
       </c>
@@ -3016,7 +3017,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>550</v>
@@ -3034,7 +3035,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>36617</v>
       </c>
@@ -3058,7 +3059,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>387</v>
@@ -3076,7 +3077,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>36647</v>
       </c>
@@ -3100,7 +3101,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>36678</v>
       </c>
@@ -3124,7 +3125,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>36708</v>
       </c>
@@ -3148,7 +3149,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>36739</v>
       </c>
@@ -3172,7 +3173,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>142</v>
@@ -3194,7 +3195,7 @@
         <v>36755</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>142</v>
@@ -3216,7 +3217,7 @@
         <v>36759</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>36770</v>
       </c>
@@ -3240,7 +3241,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>36800</v>
       </c>
@@ -3266,7 +3267,7 @@
         <v>36804</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>142</v>
@@ -3288,7 +3289,7 @@
         <v>36805</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>302</v>
@@ -3310,7 +3311,7 @@
         <v>36808</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>421</v>
@@ -3332,7 +3333,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>142</v>
@@ -3354,7 +3355,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>36831</v>
       </c>
@@ -3378,7 +3379,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>544</v>
@@ -3398,7 +3399,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>36861</v>
       </c>
@@ -3424,7 +3425,7 @@
         <v>36861</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>117</v>
@@ -3446,7 +3447,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>547</v>
@@ -3466,7 +3467,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="49" t="s">
         <v>125</v>
       </c>
@@ -3484,7 +3485,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>36892</v>
       </c>
@@ -3510,7 +3511,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>147</v>
@@ -3530,7 +3531,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>143</v>
@@ -3550,7 +3551,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>36923</v>
       </c>
@@ -3576,7 +3577,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>231</v>
@@ -3596,7 +3597,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>36951</v>
       </c>
@@ -3622,7 +3623,7 @@
         <v>36593</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>259</v>
@@ -3642,7 +3643,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="48"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>36982</v>
       </c>
@@ -3666,7 +3667,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>147</v>
@@ -3686,7 +3687,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>147</v>
@@ -3706,7 +3707,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>37012</v>
       </c>
@@ -3730,7 +3731,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>148</v>
@@ -3752,7 +3753,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>142</v>
@@ -3774,7 +3775,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>37043</v>
       </c>
@@ -3798,7 +3799,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>153</v>
@@ -3820,7 +3821,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>37073</v>
       </c>
@@ -3846,7 +3847,7 @@
         <v>37081</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>142</v>
@@ -3868,7 +3869,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>155</v>
@@ -3890,7 +3891,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>37104</v>
       </c>
@@ -3916,7 +3917,7 @@
         <v>37112</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>142</v>
@@ -3938,7 +3939,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>157</v>
@@ -3958,7 +3959,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>37135</v>
       </c>
@@ -3984,7 +3985,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>159</v>
@@ -4004,7 +4005,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>37165</v>
       </c>
@@ -4030,7 +4031,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>162</v>
@@ -4054,7 +4055,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>165</v>
@@ -4076,7 +4077,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>164</v>
@@ -4096,7 +4097,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>37196</v>
       </c>
@@ -4122,7 +4123,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>165</v>
@@ -4144,7 +4145,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>236</v>
@@ -4164,7 +4165,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>167</v>
@@ -4184,7 +4185,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>37226</v>
       </c>
@@ -4210,7 +4211,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>170</v>
@@ -4230,7 +4231,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="49" t="s">
         <v>141</v>
       </c>
@@ -4250,7 +4251,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>37257</v>
       </c>
@@ -4276,7 +4277,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>171</v>
@@ -4296,7 +4297,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>37288</v>
       </c>
@@ -4322,7 +4323,7 @@
         <v>37294</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>142</v>
@@ -4344,7 +4345,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>176</v>
@@ -4366,7 +4367,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>37316</v>
       </c>
@@ -4390,7 +4391,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>174</v>
@@ -4412,7 +4413,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>175</v>
@@ -4432,7 +4433,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>37347</v>
       </c>
@@ -4458,7 +4459,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>176</v>
@@ -4480,7 +4481,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>218</v>
@@ -4500,7 +4501,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>37377</v>
       </c>
@@ -4526,7 +4527,7 @@
         <v>37442</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>165</v>
@@ -4550,7 +4551,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>162</v>
@@ -4572,7 +4573,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>165</v>
@@ -4594,7 +4595,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>177</v>
@@ -4614,7 +4615,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>37408</v>
       </c>
@@ -4640,7 +4641,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>165</v>
@@ -4662,7 +4663,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>178</v>
@@ -4680,7 +4681,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>37438</v>
       </c>
@@ -4706,7 +4707,7 @@
         <v>37536</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>191</v>
@@ -4730,7 +4731,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>246</v>
@@ -4752,7 +4753,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>309</v>
@@ -4772,7 +4773,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>37469</v>
       </c>
@@ -4798,7 +4799,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>37500</v>
       </c>
@@ -4824,7 +4825,7 @@
         <v>37508</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>191</v>
@@ -4848,7 +4849,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>37530</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>37113</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>174</v>
@@ -4898,7 +4899,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
         <v>37561</v>
       </c>
@@ -4924,7 +4925,7 @@
         <v>37357</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>165</v>
@@ -4948,7 +4949,7 @@
         <v>37479</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>165</v>
@@ -4970,7 +4971,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>191</v>
@@ -4990,7 +4991,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>195</v>
@@ -5010,7 +5011,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>37591</v>
       </c>
@@ -5036,7 +5037,7 @@
         <v>37602</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="49" t="s">
         <v>140</v>
       </c>
@@ -5054,7 +5055,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>37622</v>
       </c>
@@ -5076,7 +5077,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>142</v>
@@ -5098,7 +5099,7 @@
         <v>37631</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>165</v>
@@ -5122,7 +5123,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>147</v>
@@ -5142,7 +5143,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>198</v>
@@ -5164,7 +5165,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="48"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>37653</v>
       </c>
@@ -5190,7 +5191,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>37681</v>
       </c>
@@ -5218,7 +5219,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>202</v>
@@ -5238,7 +5239,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
         <v>37712</v>
       </c>
@@ -5266,7 +5267,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>236</v>
@@ -5288,7 +5289,7 @@
         <v>37746</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5306,7 +5307,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
         <v>37742</v>
       </c>
@@ -5330,7 +5331,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>37773</v>
       </c>
@@ -5356,7 +5357,7 @@
         <v>37747</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>191</v>
@@ -5380,7 +5381,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
         <v>37803</v>
       </c>
@@ -5406,7 +5407,7 @@
         <v>37871</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>246</v>
@@ -5428,7 +5429,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>207</v>
@@ -5448,7 +5449,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>37834</v>
       </c>
@@ -5476,7 +5477,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>165</v>
@@ -5496,7 +5497,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>165</v>
@@ -5518,7 +5519,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>37865</v>
       </c>
@@ -5544,7 +5545,7 @@
         <v>37964</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>142</v>
@@ -5566,7 +5567,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>211</v>
@@ -5588,7 +5589,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>37895</v>
       </c>
@@ -5614,7 +5615,7 @@
         <v>37782</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>191</v>
@@ -5638,7 +5639,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>165</v>
@@ -5660,7 +5661,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>215</v>
@@ -5682,7 +5683,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>37926</v>
       </c>
@@ -5706,7 +5707,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>37956</v>
       </c>
@@ -5730,7 +5731,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>220</v>
@@ -5750,7 +5751,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="49" t="s">
         <v>139</v>
       </c>
@@ -5768,7 +5769,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>37987</v>
       </c>
@@ -5794,7 +5795,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>221</v>
@@ -5814,7 +5815,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>38018</v>
       </c>
@@ -5840,7 +5841,7 @@
         <v>37291</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>147</v>
@@ -5860,7 +5861,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>223</v>
@@ -5880,7 +5881,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="48"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>38047</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>38047</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>165</v>
@@ -5928,7 +5929,7 @@
         <v>38062</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>165</v>
@@ -5950,7 +5951,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>225</v>
@@ -5970,7 +5971,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>38078</v>
       </c>
@@ -5996,7 +5997,7 @@
         <v>38142</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>165</v>
@@ -6020,7 +6021,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>165</v>
@@ -6042,7 +6043,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>224</v>
@@ -6062,7 +6063,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="48"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>38108</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>38113</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>142</v>
@@ -6112,7 +6113,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>165</v>
@@ -6136,7 +6137,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>230</v>
@@ -6156,7 +6157,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>38139</v>
       </c>
@@ -6176,7 +6177,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="48"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>38169</v>
       </c>
@@ -6202,7 +6203,7 @@
         <v>38173</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>165</v>
@@ -6226,7 +6227,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>231</v>
@@ -6246,7 +6247,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="48"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>38200</v>
       </c>
@@ -6272,7 +6273,7 @@
         <v>38238</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>191</v>
@@ -6296,7 +6297,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>165</v>
@@ -6318,7 +6319,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>146</v>
@@ -6338,7 +6339,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>38231</v>
       </c>
@@ -6364,7 +6365,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>236</v>
@@ -6386,7 +6387,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>238</v>
@@ -6406,7 +6407,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>38261</v>
       </c>
@@ -6432,7 +6433,7 @@
         <v>37996</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>165</v>
@@ -6456,7 +6457,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>240</v>
@@ -6476,7 +6477,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>38292</v>
       </c>
@@ -6502,7 +6503,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>165</v>
@@ -6526,7 +6527,7 @@
         <v>38149</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>165</v>
@@ -6548,7 +6549,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>242</v>
@@ -6568,7 +6569,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>38322</v>
       </c>
@@ -6594,7 +6595,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>244</v>
@@ -6614,7 +6615,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="49" t="s">
         <v>138</v>
       </c>
@@ -6632,7 +6633,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>38353</v>
       </c>
@@ -6654,7 +6655,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>142</v>
@@ -6676,7 +6677,7 @@
         <v>38365</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>236</v>
@@ -6700,7 +6701,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>147</v>
@@ -6720,7 +6721,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>147</v>
@@ -6740,7 +6741,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>38384</v>
       </c>
@@ -6760,7 +6761,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>38412</v>
       </c>
@@ -6786,7 +6787,7 @@
         <v>38428</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>142</v>
@@ -6808,7 +6809,7 @@
         <v>38438</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>38443</v>
       </c>
@@ -6834,7 +6835,7 @@
         <v>38467</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>38473</v>
       </c>
@@ -6860,7 +6861,7 @@
         <v>38482</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>142</v>
@@ -6882,7 +6883,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>236</v>
@@ -6904,7 +6905,7 @@
         <v>38509</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>38504</v>
       </c>
@@ -6930,7 +6931,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>165</v>
@@ -6954,7 +6955,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>38534</v>
       </c>
@@ -6982,7 +6983,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40">
         <v>38565</v>
       </c>
@@ -7002,7 +7003,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40">
         <v>38596</v>
       </c>
@@ -7028,7 +7029,7 @@
         <v>38695</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>142</v>
@@ -7050,7 +7051,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40">
         <v>38626</v>
       </c>
@@ -7076,7 +7077,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40">
         <v>38657</v>
       </c>
@@ -7096,7 +7097,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40">
         <v>38687</v>
       </c>
@@ -7122,7 +7123,7 @@
         <v>38607</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>142</v>
@@ -7144,7 +7145,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>254</v>
@@ -7164,7 +7165,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="49" t="s">
         <v>137</v>
       </c>
@@ -7186,7 +7187,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="40">
         <v>38718</v>
       </c>
@@ -7210,7 +7211,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>117</v>
@@ -7232,7 +7233,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>191</v>
@@ -7254,7 +7255,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>165</v>
@@ -7276,7 +7277,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="40">
         <v>38749</v>
       </c>
@@ -7300,7 +7301,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>142</v>
@@ -7322,7 +7323,7 @@
         <v>38962</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>259</v>
@@ -7342,7 +7343,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="40">
         <v>38777</v>
       </c>
@@ -7368,7 +7369,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>147</v>
@@ -7388,7 +7389,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>142</v>
@@ -7410,7 +7411,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>236</v>
@@ -7432,7 +7433,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>147</v>
@@ -7452,7 +7453,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="40">
         <v>38808</v>
       </c>
@@ -7480,7 +7481,7 @@
         <v>38810</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>142</v>
@@ -7502,7 +7503,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>142</v>
@@ -7524,7 +7525,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>269</v>
@@ -7544,7 +7545,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="48"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="40">
         <v>38838</v>
       </c>
@@ -7570,7 +7571,7 @@
         <v>38812</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>270</v>
@@ -7592,7 +7593,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="48"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>147</v>
@@ -7612,7 +7613,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="40">
         <v>38869</v>
       </c>
@@ -7636,7 +7637,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="40">
         <v>38899</v>
       </c>
@@ -7662,7 +7663,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>273</v>
@@ -7682,7 +7683,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="40">
         <v>38930</v>
       </c>
@@ -7708,7 +7709,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>276</v>
@@ -7728,7 +7729,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="40">
         <v>38961</v>
       </c>
@@ -7754,7 +7755,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>560</v>
@@ -7774,7 +7775,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="40">
         <v>38991</v>
       </c>
@@ -7798,7 +7799,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="40">
         <v>39022</v>
       </c>
@@ -7824,7 +7825,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>142</v>
@@ -7846,7 +7847,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>278</v>
@@ -7866,7 +7867,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="40">
         <v>39052</v>
       </c>
@@ -7892,7 +7893,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>282</v>
@@ -7912,7 +7913,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="48"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="49" t="s">
         <v>136</v>
       </c>
@@ -7934,7 +7935,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="40">
         <v>39083</v>
       </c>
@@ -7958,7 +7959,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>142</v>
@@ -7980,7 +7981,7 @@
         <v>39091</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>548</v>
@@ -8002,7 +8003,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>117</v>
@@ -8024,7 +8025,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="40">
         <v>39114</v>
       </c>
@@ -8048,7 +8049,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>142</v>
@@ -8070,7 +8071,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>142</v>
@@ -8090,7 +8091,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>288</v>
@@ -8110,7 +8111,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="40">
         <v>39142</v>
       </c>
@@ -8136,7 +8137,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>147</v>
@@ -8154,7 +8155,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>147</v>
@@ -8174,7 +8175,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>549</v>
@@ -8194,7 +8195,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>39173</v>
       </c>
@@ -8222,7 +8223,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>292</v>
@@ -8242,7 +8243,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>142</v>
@@ -8260,7 +8261,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>39203</v>
       </c>
@@ -8286,7 +8287,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>293</v>
@@ -8306,7 +8307,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>236</v>
@@ -8328,7 +8329,7 @@
         <v>39237</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="40">
         <v>39234</v>
       </c>
@@ -8354,7 +8355,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>142</v>
@@ -8376,7 +8377,7 @@
         <v>39245</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>295</v>
@@ -8396,7 +8397,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="40">
         <v>39264</v>
       </c>
@@ -8422,7 +8423,7 @@
         <v>39332</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>216</v>
@@ -8446,7 +8447,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="40">
         <v>39295</v>
       </c>
@@ -8472,7 +8473,7 @@
         <v>39302</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>509</v>
@@ -8492,7 +8493,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="48"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="40">
         <v>39326</v>
       </c>
@@ -8518,7 +8519,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>162</v>
@@ -8538,7 +8539,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>299</v>
@@ -8558,7 +8559,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>300</v>
@@ -8578,7 +8579,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="40">
         <v>39356</v>
       </c>
@@ -8604,7 +8605,7 @@
         <v>39092</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>301</v>
@@ -8626,7 +8627,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>142</v>
@@ -8648,7 +8649,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>302</v>
@@ -8668,7 +8669,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>303</v>
@@ -8688,7 +8689,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>273</v>
@@ -8708,7 +8709,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>300</v>
@@ -8728,7 +8729,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="40">
         <v>39387</v>
       </c>
@@ -8754,7 +8755,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>165</v>
@@ -8776,7 +8777,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>191</v>
@@ -8798,7 +8799,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>308</v>
@@ -8818,7 +8819,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="40">
         <v>39417</v>
       </c>
@@ -8844,7 +8845,7 @@
         <v>39422</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>562</v>
@@ -8864,7 +8865,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>142</v>
@@ -8884,7 +8885,7 @@
         <v>39808</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>236</v>
@@ -8904,7 +8905,7 @@
         <v>39454</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="49" t="s">
         <v>135</v>
       </c>
@@ -8926,7 +8927,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="40">
         <v>39448</v>
       </c>
@@ -8950,7 +8951,7 @@
         <v>39449</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>309</v>
@@ -8972,7 +8973,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>142</v>
@@ -8992,7 +8993,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>312</v>
@@ -9012,7 +9013,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="48"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>313</v>
@@ -9032,7 +9033,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="48"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="40">
         <v>39479</v>
       </c>
@@ -9056,7 +9057,7 @@
         <v>39601</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>165</v>
@@ -9078,7 +9079,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="48"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>314</v>
@@ -9098,7 +9099,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="48"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>315</v>
@@ -9118,7 +9119,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="48"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="40">
         <v>39508</v>
       </c>
@@ -9144,7 +9145,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>317</v>
@@ -9164,7 +9165,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>318</v>
@@ -9184,7 +9185,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="40">
         <v>39539</v>
       </c>
@@ -9208,7 +9209,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>320</v>
@@ -9232,7 +9233,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>322</v>
@@ -9252,7 +9253,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>323</v>
@@ -9272,7 +9273,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="40">
         <v>39569</v>
       </c>
@@ -9296,7 +9297,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>324</v>
@@ -9316,7 +9317,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>325</v>
@@ -9336,7 +9337,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="40">
         <v>39600</v>
       </c>
@@ -9362,7 +9363,7 @@
         <v>39574</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>165</v>
@@ -9386,7 +9387,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>326</v>
@@ -9406,7 +9407,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="48"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>325</v>
@@ -9426,7 +9427,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="48"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="40">
         <v>39630</v>
       </c>
@@ -9452,7 +9453,7 @@
         <v>39545</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>191</v>
@@ -9476,7 +9477,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>177</v>
@@ -9496,7 +9497,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="48"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="40">
         <v>39661</v>
       </c>
@@ -9524,7 +9525,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>325</v>
@@ -9544,7 +9545,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>329</v>
@@ -9566,7 +9567,7 @@
         <v>39516</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="40">
         <v>39692</v>
       </c>
@@ -9588,7 +9589,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>330</v>
@@ -9612,7 +9613,7 @@
         <v>39791</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>165</v>
@@ -9634,7 +9635,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>332</v>
@@ -9654,7 +9655,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="48"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>323</v>
@@ -9674,7 +9675,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="48"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="40">
         <v>39722</v>
       </c>
@@ -9702,7 +9703,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>165</v>
@@ -9724,7 +9725,7 @@
         <v>39731</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>170</v>
@@ -9744,7 +9745,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="48"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>325</v>
@@ -9764,7 +9765,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="48"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="40">
         <v>39753</v>
       </c>
@@ -9790,7 +9791,7 @@
         <v>39756</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>165</v>
@@ -9814,7 +9815,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>323</v>
@@ -9834,7 +9835,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="48"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>334</v>
@@ -9854,7 +9855,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="48"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="40">
         <v>39783</v>
       </c>
@@ -9878,7 +9879,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>336</v>
@@ -9898,7 +9899,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="49" t="s">
         <v>134</v>
       </c>
@@ -9920,7 +9921,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="40">
         <v>39814</v>
       </c>
@@ -9946,7 +9947,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>147</v>
@@ -9966,7 +9967,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>165</v>
@@ -9988,7 +9989,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>147</v>
@@ -10008,7 +10009,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>341</v>
@@ -10028,7 +10029,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="40">
         <v>39845</v>
       </c>
@@ -10052,7 +10053,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>343</v>
@@ -10072,7 +10073,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="40">
         <v>39873</v>
       </c>
@@ -10098,7 +10099,7 @@
         <v>39847</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>142</v>
@@ -10120,7 +10121,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>345</v>
@@ -10140,7 +10141,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="48"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="40">
         <v>39904</v>
       </c>
@@ -10166,7 +10167,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>165</v>
@@ -10190,7 +10191,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>348</v>
@@ -10210,7 +10211,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="40">
         <v>39934</v>
       </c>
@@ -10236,7 +10237,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>349</v>
@@ -10256,7 +10257,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="48"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>142</v>
@@ -10278,7 +10279,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="40">
         <v>39965</v>
       </c>
@@ -10306,7 +10307,7 @@
         <v>39819</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>216</v>
@@ -10330,7 +10331,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>352</v>
@@ -10350,7 +10351,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="48"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="40">
         <v>39995</v>
       </c>
@@ -10374,7 +10375,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="40">
         <v>40026</v>
       </c>
@@ -10398,7 +10399,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="40">
         <v>40057</v>
       </c>
@@ -10424,7 +10425,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>142</v>
@@ -10446,7 +10447,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>357</v>
@@ -10466,7 +10467,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="40">
         <v>40087</v>
       </c>
@@ -10492,7 +10493,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>358</v>
@@ -10512,7 +10513,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="40">
         <v>40118</v>
       </c>
@@ -10536,7 +10537,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="40">
         <v>40148</v>
       </c>
@@ -10560,7 +10561,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="49" t="s">
         <v>133</v>
       </c>
@@ -10582,7 +10583,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="40">
         <v>40179</v>
       </c>
@@ -10606,7 +10607,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>147</v>
@@ -10626,7 +10627,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>195</v>
@@ -10646,7 +10647,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="40">
         <v>40210</v>
       </c>
@@ -10670,7 +10671,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>142</v>
@@ -10692,7 +10693,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>336</v>
@@ -10712,7 +10713,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="40">
         <v>40238</v>
       </c>
@@ -10736,7 +10737,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="40">
         <v>40269</v>
       </c>
@@ -10762,7 +10763,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>369</v>
@@ -10782,7 +10783,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="40">
         <v>40299</v>
       </c>
@@ -10808,7 +10809,7 @@
         <v>40310</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>370</v>
@@ -10828,7 +10829,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="48"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="40">
         <v>40330</v>
       </c>
@@ -10854,7 +10855,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>371</v>
@@ -10874,7 +10875,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="48"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="40">
         <v>40360</v>
       </c>
@@ -10900,7 +10901,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>373</v>
@@ -10922,7 +10923,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>375</v>
@@ -10942,7 +10943,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="40">
         <v>40391</v>
       </c>
@@ -10966,7 +10967,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="40">
         <v>40422</v>
       </c>
@@ -10990,7 +10991,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="40">
         <v>40452</v>
       </c>
@@ -11016,7 +11017,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>117</v>
@@ -11038,7 +11039,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>382</v>
@@ -11058,7 +11059,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="40">
         <v>40483</v>
       </c>
@@ -11084,7 +11085,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>381</v>
@@ -11104,7 +11105,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="40">
         <v>40513</v>
       </c>
@@ -11128,7 +11129,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="49" t="s">
         <v>132</v>
       </c>
@@ -11150,7 +11151,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="40">
         <v>40544</v>
       </c>
@@ -11174,7 +11175,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>117</v>
@@ -11196,7 +11197,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>385</v>
@@ -11218,7 +11219,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="40">
         <v>40575</v>
       </c>
@@ -11242,7 +11243,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>200</v>
@@ -11266,7 +11267,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>165</v>
@@ -11288,7 +11289,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>391</v>
@@ -11308,7 +11309,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="40">
         <v>40603</v>
       </c>
@@ -11334,7 +11335,7 @@
         <v>40577</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>392</v>
@@ -11358,7 +11359,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="40">
         <v>40634</v>
       </c>
@@ -11378,7 +11379,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="40">
         <v>40664</v>
       </c>
@@ -11404,7 +11405,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="40">
         <v>40695</v>
       </c>
@@ -11430,7 +11431,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="40">
         <v>40725</v>
       </c>
@@ -11450,7 +11451,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="40">
         <v>40756</v>
       </c>
@@ -11476,7 +11477,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="40">
         <v>40787</v>
       </c>
@@ -11500,7 +11501,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>399</v>
@@ -11520,7 +11521,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>400</v>
@@ -11540,7 +11541,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="40">
         <v>40817</v>
       </c>
@@ -11564,7 +11565,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="40">
         <v>40848</v>
       </c>
@@ -11590,7 +11591,7 @@
         <v>40585</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>142</v>
@@ -11612,7 +11613,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>142</v>
@@ -11634,7 +11635,7 @@
         <v>40586</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="40">
         <v>40878</v>
       </c>
@@ -11658,7 +11659,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>396</v>
@@ -11678,7 +11679,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>396</v>
@@ -11698,7 +11699,7 @@
         <v>40767</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>142</v>
@@ -11720,7 +11721,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>404</v>
@@ -11740,7 +11741,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="48"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="49" t="s">
         <v>131</v>
       </c>
@@ -11762,7 +11763,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="40">
         <v>40909</v>
       </c>
@@ -11786,7 +11787,7 @@
         <v>41030</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>405</v>
@@ -11806,7 +11807,7 @@
         <v>41061</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>147</v>
@@ -11826,7 +11827,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>142</v>
@@ -11848,7 +11849,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>406</v>
@@ -11868,7 +11869,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="40">
         <v>40940</v>
       </c>
@@ -11892,7 +11893,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>142</v>
@@ -11914,7 +11915,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>396</v>
@@ -11934,7 +11935,7 @@
         <v>41124</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>411</v>
@@ -11954,7 +11955,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="40">
         <v>40969</v>
       </c>
@@ -11980,7 +11981,7 @@
         <v>40971</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>396</v>
@@ -12000,7 +12001,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>142</v>
@@ -12022,7 +12023,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>414</v>
@@ -12042,7 +12043,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="48"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="40">
         <v>41000</v>
       </c>
@@ -12066,7 +12067,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="40">
         <v>41030</v>
       </c>
@@ -12092,7 +12093,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>417</v>
@@ -12112,7 +12113,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>396</v>
@@ -12132,7 +12133,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>420</v>
@@ -12152,7 +12153,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="40">
         <v>41061</v>
       </c>
@@ -12178,7 +12179,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>422</v>
@@ -12198,7 +12199,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <v>41091</v>
       </c>
@@ -12224,7 +12225,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>425</v>
@@ -12244,7 +12245,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="48"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <v>41122</v>
       </c>
@@ -12270,7 +12271,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>117</v>
@@ -12292,7 +12293,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>425</v>
@@ -12312,7 +12313,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="48"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="40">
         <v>41153</v>
       </c>
@@ -12338,7 +12339,7 @@
         <v>40918</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>142</v>
@@ -12358,7 +12359,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="48"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>428</v>
@@ -12378,7 +12379,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="48"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="40">
         <v>41183</v>
       </c>
@@ -12404,7 +12405,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>427</v>
@@ -12424,7 +12425,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="40">
         <v>41214</v>
       </c>
@@ -12450,7 +12451,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>431</v>
@@ -12470,7 +12471,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="40">
         <v>41244</v>
       </c>
@@ -12496,7 +12497,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>434</v>
@@ -12516,7 +12517,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="49" t="s">
         <v>130</v>
       </c>
@@ -12538,7 +12539,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="40">
         <v>41275</v>
       </c>
@@ -12562,7 +12563,7 @@
         <v>41365</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>147</v>
@@ -12582,7 +12583,7 @@
         <v>41487</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>435</v>
@@ -12602,7 +12603,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="40">
         <v>41306</v>
       </c>
@@ -12626,7 +12627,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="40">
         <v>41334</v>
       </c>
@@ -12650,7 +12651,7 @@
         <v>41279</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="40">
         <v>41365</v>
       </c>
@@ -12676,7 +12677,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>438</v>
@@ -12698,7 +12699,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="40">
         <v>41395</v>
       </c>
@@ -12720,7 +12721,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="40">
         <v>41426</v>
       </c>
@@ -12744,7 +12745,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>442</v>
@@ -12764,7 +12765,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="40">
         <v>41456</v>
       </c>
@@ -12788,7 +12789,7 @@
         <v>41401</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>176</v>
@@ -12810,7 +12811,7 @@
         <v>41615</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>176</v>
@@ -12832,7 +12833,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>117</v>
@@ -12854,7 +12855,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>117</v>
@@ -12876,7 +12877,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="40">
         <v>41487</v>
       </c>
@@ -12902,7 +12903,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>447</v>
@@ -12922,7 +12923,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="40">
         <v>41518</v>
       </c>
@@ -12946,7 +12947,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>449</v>
@@ -12966,7 +12967,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="40">
         <v>41548</v>
       </c>
@@ -12990,7 +12991,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="40">
         <v>41579</v>
       </c>
@@ -13010,7 +13011,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="40">
         <v>41609</v>
       </c>
@@ -13036,7 +13037,7 @@
         <v>41590</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="49" t="s">
         <v>129</v>
       </c>
@@ -13058,7 +13059,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="40">
         <v>41640</v>
       </c>
@@ -13082,7 +13083,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="40">
         <v>41671</v>
       </c>
@@ -13106,7 +13107,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>147</v>
@@ -13126,7 +13127,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>451</v>
@@ -13146,7 +13147,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="40">
         <v>41699</v>
       </c>
@@ -13172,7 +13173,7 @@
         <v>41823</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>176</v>
@@ -13194,7 +13195,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>453</v>
@@ -13216,7 +13217,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="40">
         <v>41730</v>
       </c>
@@ -13240,7 +13241,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>117</v>
@@ -13262,7 +13263,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>456</v>
@@ -13282,7 +13283,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>421</v>
@@ -13304,7 +13305,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="40">
         <v>41760</v>
       </c>
@@ -13330,7 +13331,7 @@
         <v>41795</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>117</v>
@@ -13352,7 +13353,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>195</v>
@@ -13372,7 +13373,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="48"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="40">
         <v>41791</v>
       </c>
@@ -13398,7 +13399,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>142</v>
@@ -13420,7 +13421,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>142</v>
@@ -13442,7 +13443,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>462</v>
@@ -13462,7 +13463,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="40">
         <v>41821</v>
       </c>
@@ -13488,7 +13489,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>464</v>
@@ -13510,7 +13511,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>466</v>
@@ -13530,7 +13531,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="40">
         <v>41852</v>
       </c>
@@ -13556,7 +13557,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>468</v>
@@ -13576,7 +13577,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="40">
         <v>41883</v>
       </c>
@@ -13602,7 +13603,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>470</v>
@@ -13622,7 +13623,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="40">
         <v>41913</v>
       </c>
@@ -13646,7 +13647,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="40">
         <v>41944</v>
       </c>
@@ -13672,7 +13673,7 @@
         <v>41740</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>142</v>
@@ -13694,7 +13695,7 @@
         <v>41862</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="40">
         <v>41974</v>
       </c>
@@ -13720,7 +13721,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>471</v>
@@ -13740,7 +13741,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="48"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="49" t="s">
         <v>128</v>
       </c>
@@ -13762,7 +13763,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="40">
         <v>42005</v>
       </c>
@@ -13786,7 +13787,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>147</v>
@@ -13806,7 +13807,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>142</v>
@@ -13826,7 +13827,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>472</v>
@@ -13846,7 +13847,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="48"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>42036</v>
       </c>
@@ -13872,7 +13873,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>142</v>
@@ -13894,7 +13895,7 @@
         <v>42310</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>474</v>
@@ -13914,7 +13915,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="48"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>42064</v>
       </c>
@@ -13940,7 +13941,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>236</v>
@@ -13962,7 +13963,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>142</v>
@@ -13984,7 +13985,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>477</v>
@@ -14004,7 +14005,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="48"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>42095</v>
       </c>
@@ -14030,7 +14031,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>147</v>
@@ -14050,7 +14051,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>165</v>
@@ -14072,7 +14073,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>165</v>
@@ -14094,7 +14095,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>482</v>
@@ -14114,7 +14115,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40">
         <v>42125</v>
       </c>
@@ -14140,7 +14141,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>484</v>
@@ -14160,7 +14161,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40">
         <v>42156</v>
       </c>
@@ -14186,7 +14187,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>486</v>
@@ -14206,7 +14207,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40">
         <v>42186</v>
       </c>
@@ -14230,7 +14231,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>142</v>
@@ -14252,7 +14253,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="40">
         <v>42217</v>
       </c>
@@ -14278,7 +14279,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>488</v>
@@ -14298,7 +14299,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>142</v>
@@ -14320,7 +14321,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>370</v>
@@ -14340,7 +14341,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>42248</v>
       </c>
@@ -14366,7 +14367,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>491</v>
@@ -14386,7 +14387,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>42278</v>
       </c>
@@ -14412,7 +14413,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>494</v>
@@ -14432,7 +14433,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>42309</v>
       </c>
@@ -14458,7 +14459,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>496</v>
@@ -14478,7 +14479,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40">
         <v>42339</v>
       </c>
@@ -14504,7 +14505,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>498</v>
@@ -14524,7 +14525,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="49" t="s">
         <v>127</v>
       </c>
@@ -14546,7 +14547,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>42370</v>
       </c>
@@ -14570,7 +14571,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>142</v>
@@ -14592,7 +14593,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>500</v>
@@ -14612,7 +14613,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="48"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40">
         <v>42401</v>
       </c>
@@ -14636,7 +14637,7 @@
         <v>42492</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>142</v>
@@ -14658,7 +14659,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>502</v>
@@ -14678,7 +14679,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="48"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40">
         <v>42430</v>
       </c>
@@ -14704,7 +14705,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>147</v>
@@ -14724,7 +14725,7 @@
         <v>42586</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>504</v>
@@ -14744,7 +14745,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="48"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>42461</v>
       </c>
@@ -14770,7 +14771,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>506</v>
@@ -14790,7 +14791,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>42491</v>
       </c>
@@ -14816,7 +14817,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>146</v>
@@ -14836,7 +14837,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>42522</v>
       </c>
@@ -14862,7 +14863,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>308</v>
@@ -14882,7 +14883,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>42552</v>
       </c>
@@ -14906,7 +14907,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>42583</v>
       </c>
@@ -14932,7 +14933,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>511</v>
@@ -14952,7 +14953,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="40">
         <v>42614</v>
       </c>
@@ -14978,7 +14979,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>142</v>
@@ -15000,7 +15001,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>513</v>
@@ -15020,7 +15021,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="50"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>42644</v>
       </c>
@@ -15046,7 +15047,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>515</v>
@@ -15066,7 +15067,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>42675</v>
       </c>
@@ -15092,7 +15093,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>516</v>
@@ -15112,7 +15113,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>42705</v>
       </c>
@@ -15136,7 +15137,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="49" t="s">
         <v>126</v>
       </c>
@@ -15158,7 +15159,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>42736</v>
       </c>
@@ -15182,7 +15183,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>517</v>
@@ -15202,7 +15203,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>42767</v>
       </c>
@@ -15228,7 +15229,7 @@
         <v>42796</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>519</v>
@@ -15248,7 +15249,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="48"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40">
         <v>42795</v>
       </c>
@@ -15272,7 +15273,7 @@
         <v>42769</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>142</v>
@@ -15294,7 +15295,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40">
         <v>42826</v>
       </c>
@@ -15318,7 +15319,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>521</v>
@@ -15338,7 +15339,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="48"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>42856</v>
       </c>
@@ -15364,7 +15365,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>142</v>
@@ -15386,7 +15387,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>523</v>
@@ -15406,7 +15407,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="48"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40">
         <v>42887</v>
       </c>
@@ -15432,7 +15433,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>117</v>
@@ -15454,7 +15455,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>435</v>
@@ -15474,7 +15475,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>42917</v>
       </c>
@@ -15500,7 +15501,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>142</v>
@@ -15522,7 +15523,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>482</v>
@@ -15542,7 +15543,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>42948</v>
       </c>
@@ -15568,7 +15569,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>142</v>
@@ -15590,7 +15591,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>530</v>
@@ -15610,7 +15611,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40">
         <v>42979</v>
       </c>
@@ -15636,7 +15637,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>532</v>
@@ -15656,7 +15657,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>43009</v>
       </c>
@@ -15682,7 +15683,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>117</v>
@@ -15704,7 +15705,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>191</v>
@@ -15728,7 +15729,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>535</v>
@@ -15748,7 +15749,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>43040</v>
       </c>
@@ -15768,7 +15769,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40">
         <v>43070</v>
       </c>
@@ -15792,7 +15793,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="23" t="s">
         <v>45</v>
       </c>
@@ -15810,7 +15811,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>43101</v>
       </c>
@@ -15834,7 +15835,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40">
         <v>43132</v>
       </c>
@@ -15856,7 +15857,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>48</v>
@@ -15878,7 +15879,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>46</v>
@@ -15900,7 +15901,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="41">
         <v>43160</v>
       </c>
@@ -15920,7 +15921,7 @@
       <c r="J583" s="12"/>
       <c r="K583" s="15"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>43191</v>
       </c>
@@ -15944,7 +15945,7 @@
         <v>43135</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40"/>
       <c r="B585" s="20" t="s">
         <v>52</v>
@@ -15968,7 +15969,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>43221</v>
       </c>
@@ -15992,7 +15993,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>55</v>
@@ -16016,7 +16017,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>43252</v>
       </c>
@@ -16042,7 +16043,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
         <v>55</v>
@@ -16066,7 +16067,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>59</v>
@@ -16088,7 +16089,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
         <v>43282</v>
       </c>
@@ -16108,7 +16109,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
         <v>43313</v>
       </c>
@@ -16132,7 +16133,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
         <v>43344</v>
       </c>
@@ -16158,7 +16159,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
         <v>43374</v>
       </c>
@@ -16184,7 +16185,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
         <v>43405</v>
       </c>
@@ -16210,7 +16211,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
         <v>43435</v>
       </c>
@@ -16236,7 +16237,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="49" t="s">
         <v>67</v>
       </c>
@@ -16254,7 +16255,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
         <v>43466</v>
       </c>
@@ -16278,7 +16279,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>68</v>
@@ -16300,7 +16301,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
         <v>43497</v>
       </c>
@@ -16324,7 +16325,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
         <v>43525</v>
       </c>
@@ -16346,7 +16347,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40"/>
       <c r="B602" s="20" t="s">
         <v>52</v>
@@ -16370,7 +16371,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
         <v>43556</v>
       </c>
@@ -16394,7 +16395,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
         <v>75</v>
@@ -16420,7 +16421,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
         <v>43586</v>
       </c>
@@ -16440,7 +16441,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
         <v>43617</v>
       </c>
@@ -16464,7 +16465,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>52</v>
@@ -16486,7 +16487,7 @@
         <v>43744</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>79</v>
@@ -16510,7 +16511,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
         <v>43647</v>
       </c>
@@ -16534,7 +16535,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>48</v>
@@ -16558,7 +16559,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
         <v>43678</v>
       </c>
@@ -16582,7 +16583,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>81</v>
@@ -16606,7 +16607,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
         <v>43709</v>
       </c>
@@ -16632,7 +16633,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
         <v>43739</v>
       </c>
@@ -16660,7 +16661,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
         <v>43770</v>
       </c>
@@ -16686,7 +16687,7 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
         <v>43800</v>
       </c>
@@ -16710,7 +16711,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="49" t="s">
         <v>87</v>
       </c>
@@ -16728,7 +16729,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
         <v>43831</v>
       </c>
@@ -16752,7 +16753,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40"/>
       <c r="B619" s="20" t="s">
         <v>88</v>
@@ -16774,7 +16775,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>89</v>
@@ -16796,7 +16797,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
         <v>43862</v>
       </c>
@@ -16816,7 +16817,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
         <v>43891</v>
       </c>
@@ -16836,7 +16837,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
         <v>43922</v>
       </c>
@@ -16856,7 +16857,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
         <v>43952</v>
       </c>
@@ -16876,7 +16877,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
         <v>43983</v>
       </c>
@@ -16896,7 +16897,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A626" s="40">
         <v>44013</v>
       </c>
@@ -16920,7 +16921,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>92</v>
@@ -16944,7 +16945,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A628" s="40">
         <v>44044</v>
       </c>
@@ -16964,7 +16965,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A629" s="40">
         <v>44075</v>
       </c>
@@ -16984,7 +16985,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A630" s="40">
         <v>44105</v>
       </c>
@@ -17004,7 +17005,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A631" s="40">
         <v>44136</v>
       </c>
@@ -17024,7 +17025,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A632" s="40">
         <v>44166</v>
       </c>
@@ -17048,7 +17049,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A633" s="49" t="s">
         <v>94</v>
       </c>
@@ -17066,7 +17067,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A634" s="40">
         <v>44197</v>
       </c>
@@ -17086,7 +17087,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A635" s="40">
         <v>44228</v>
       </c>
@@ -17112,7 +17113,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A636" s="40">
         <v>44256</v>
       </c>
@@ -17132,7 +17133,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A637" s="40">
         <v>44287</v>
       </c>
@@ -17152,7 +17153,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A638" s="40">
         <v>44317</v>
       </c>
@@ -17172,7 +17173,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A639" s="40">
         <v>44348</v>
       </c>
@@ -17192,7 +17193,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A640" s="40">
         <v>44378</v>
       </c>
@@ -17216,7 +17217,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
         <v>55</v>
@@ -17238,7 +17239,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>48</v>
@@ -17262,7 +17263,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A643" s="40">
         <v>44409</v>
       </c>
@@ -17288,7 +17289,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A644" s="40">
         <v>44440</v>
       </c>
@@ -17308,7 +17309,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A645" s="40">
         <v>44470</v>
       </c>
@@ -17334,7 +17335,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A646" s="40">
         <v>44501</v>
       </c>
@@ -17360,7 +17361,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A647" s="40">
         <v>44531</v>
       </c>
@@ -17386,7 +17387,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A648" s="49" t="s">
         <v>87</v>
       </c>
@@ -17404,7 +17405,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A649" s="40">
         <v>44562</v>
       </c>
@@ -17428,7 +17429,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A650" s="40">
         <v>44593</v>
       </c>
@@ -17448,7 +17449,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A651" s="40">
         <v>44621</v>
       </c>
@@ -17472,7 +17473,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A652" s="40">
         <v>44652</v>
       </c>
@@ -17492,7 +17493,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A653" s="40">
         <v>44682</v>
       </c>
@@ -17512,7 +17513,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A654" s="40">
         <v>44713</v>
       </c>
@@ -17538,7 +17539,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A655" s="40">
         <v>44743</v>
       </c>
@@ -17564,7 +17565,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A656" s="40">
         <v>44774</v>
       </c>
@@ -17590,7 +17591,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A657" s="40"/>
       <c r="B657" s="20" t="s">
         <v>112</v>
@@ -17612,7 +17613,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A658" s="40">
         <v>44805</v>
       </c>
@@ -17638,7 +17639,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A659" s="40"/>
       <c r="B659" s="20" t="s">
         <v>54</v>
@@ -17660,7 +17661,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A660" s="40">
         <v>44835</v>
       </c>
@@ -17686,7 +17687,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A661" s="40"/>
       <c r="B661" s="20" t="s">
         <v>48</v>
@@ -17708,7 +17709,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>52</v>
@@ -17730,7 +17731,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A663" s="40">
         <v>44866</v>
       </c>
@@ -17756,7 +17757,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A664" s="40">
         <v>44896</v>
       </c>
@@ -17782,7 +17783,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A665" s="49" t="s">
         <v>114</v>
       </c>
@@ -17800,7 +17801,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A666" s="40">
         <v>44927</v>
       </c>
@@ -17824,7 +17825,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A667" s="40"/>
       <c r="B667" s="20" t="s">
         <v>117</v>
@@ -17846,7 +17847,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A668" s="40"/>
       <c r="B668" s="20" t="s">
         <v>117</v>
@@ -17868,7 +17869,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A669" s="40">
         <v>44958</v>
       </c>
@@ -17892,7 +17893,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A670" s="40"/>
       <c r="B670" s="20" t="s">
         <v>55</v>
@@ -17914,7 +17915,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A671" s="40">
         <v>44986</v>
       </c>
@@ -17940,7 +17941,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A672" s="40"/>
       <c r="B672" s="20" t="s">
         <v>54</v>
@@ -17962,7 +17963,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A673" s="40">
         <v>45017</v>
       </c>
@@ -17988,7 +17989,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A674" s="40"/>
       <c r="B674" s="20" t="s">
         <v>55</v>
@@ -18010,11 +18011,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A675" s="40">
         <v>45047</v>
       </c>
-      <c r="B675" s="20"/>
+      <c r="B675" s="20" t="s">
+        <v>373</v>
+      </c>
       <c r="C675" s="13"/>
       <c r="D675" s="39"/>
       <c r="E675" s="9"/>
@@ -18023,12 +18026,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H675" s="39"/>
+      <c r="H675" s="39">
+        <v>5</v>
+      </c>
       <c r="I675" s="9"/>
       <c r="J675" s="11"/>
-      <c r="K675" s="20"/>
-    </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K675" s="20" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A676" s="40">
         <v>45078</v>
       </c>
@@ -18046,7 +18053,7 @@
       <c r="J676" s="11"/>
       <c r="K676" s="20"/>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A677" s="40">
         <v>45108</v>
       </c>
@@ -18064,7 +18071,7 @@
       <c r="J677" s="11"/>
       <c r="K677" s="20"/>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A678" s="40">
         <v>45139</v>
       </c>
@@ -18082,7 +18089,7 @@
       <c r="J678" s="11"/>
       <c r="K678" s="20"/>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
         <v>45170</v>
       </c>
@@ -18100,7 +18107,7 @@
       <c r="J679" s="11"/>
       <c r="K679" s="20"/>
     </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
         <v>45200</v>
       </c>
@@ -18118,7 +18125,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
         <v>45231</v>
       </c>
@@ -18136,7 +18143,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
         <v>45261</v>
       </c>
@@ -18154,7 +18161,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
         <v>45292</v>
       </c>
@@ -18172,7 +18179,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
         <v>45323</v>
       </c>
@@ -18190,7 +18197,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
         <v>45352</v>
       </c>
@@ -18208,7 +18215,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
         <v>45383</v>
       </c>
@@ -18226,7 +18233,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
         <v>45413</v>
       </c>
@@ -18244,7 +18251,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
         <v>45444</v>
       </c>
@@ -18262,7 +18269,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
         <v>45474</v>
       </c>
@@ -18280,7 +18287,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
         <v>45505</v>
       </c>
@@ -18298,7 +18305,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
         <v>45536</v>
       </c>
@@ -18316,7 +18323,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
         <v>45566</v>
       </c>
@@ -18334,7 +18341,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
         <v>45597</v>
       </c>
@@ -18352,7 +18359,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
         <v>45627</v>
       </c>
@@ -18370,7 +18377,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
         <v>45658</v>
       </c>
@@ -18388,7 +18395,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
         <v>45689</v>
       </c>
@@ -18406,7 +18413,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
         <v>45717</v>
       </c>
@@ -18424,7 +18431,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
         <v>45748</v>
       </c>
@@ -18442,7 +18449,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
         <v>45778</v>
       </c>
@@ -18460,7 +18467,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
         <v>45809</v>
       </c>
@@ -18478,7 +18485,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
         <v>45839</v>
       </c>
@@ -18496,7 +18503,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A702" s="40"/>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
@@ -18512,7 +18519,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A703" s="40"/>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
@@ -18528,7 +18535,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18544,7 +18551,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18560,7 +18567,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18576,7 +18583,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A707" s="41"/>
       <c r="B707" s="15"/>
       <c r="C707" s="42"/>
@@ -18608,10 +18615,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18634,28 +18641,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -18668,7 +18675,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18697,7 +18704,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -18721,17 +18728,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18752,7 +18759,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18779,7 +18786,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18805,7 +18812,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18831,7 +18838,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18857,7 +18864,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18883,7 +18890,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18909,7 +18916,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -18935,7 +18942,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -18961,7 +18968,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -18981,7 +18988,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19001,7 +19008,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19021,7 +19028,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19042,7 +19049,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19063,7 +19070,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19084,7 +19091,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19105,7 +19112,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19126,7 +19133,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19147,7 +19154,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19168,7 +19175,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19189,7 +19196,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19210,7 +19217,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19231,7 +19238,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19252,7 +19259,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19273,7 +19280,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19294,7 +19301,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19315,7 +19322,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19336,7 +19343,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19357,7 +19364,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19378,7 +19385,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19399,7 +19406,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19420,7 +19427,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19441,7 +19448,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19450,7 +19457,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19459,7 +19466,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19468,7 +19475,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19477,7 +19484,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19486,7 +19493,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19495,7 +19502,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19504,7 +19511,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19513,7 +19520,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19522,7 +19529,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19531,7 +19538,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19540,7 +19547,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19549,7 +19556,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19558,7 +19565,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19567,7 +19574,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19576,7 +19583,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19585,7 +19592,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19594,7 +19601,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19603,7 +19610,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19612,7 +19619,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19621,7 +19628,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19630,7 +19637,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19639,7 +19646,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19648,7 +19655,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19657,7 +19664,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19666,7 +19673,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19675,7 +19682,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19684,7 +19691,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19693,7 +19700,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19702,7 +19709,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/OJT/NEW DONE/ALEGA, ESTELITA.xlsx
+++ b/REGULAR/OJT/NEW DONE/ALEGA, ESTELITA.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="997" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="570">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1755,6 +1755,15 @@
   </si>
   <si>
     <t>5/8-12/2023</t>
+  </si>
+  <si>
+    <t>6/5-6/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6/19-20/2023 </t>
+  </si>
+  <si>
+    <t>6/26-27/2023</t>
   </si>
 </sst>
 </file>
@@ -2461,8 +2470,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K707" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K707"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K709" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K709"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2791,12 +2800,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K707"/>
+  <dimension ref="A2:K709"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3510" topLeftCell="A661" activePane="bottomLeft"/>
+      <pane ySplit="3510" topLeftCell="A664" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="B676" sqref="B676"/>
+      <selection pane="bottomLeft" activeCell="K679" sqref="K679"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2963,7 +2972,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>16.637000000000114</v>
+        <v>14.637000000000114</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2973,7 +2982,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>18.129999999999995</v>
+        <v>14.129999999999995</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -18039,7 +18048,9 @@
       <c r="A676" s="40">
         <v>45078</v>
       </c>
-      <c r="B676" s="20"/>
+      <c r="B676" s="20" t="s">
+        <v>117</v>
+      </c>
       <c r="C676" s="13"/>
       <c r="D676" s="39"/>
       <c r="E676" s="9"/>
@@ -18048,16 +18059,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H676" s="39"/>
+      <c r="H676" s="39">
+        <v>2</v>
+      </c>
       <c r="I676" s="9"/>
       <c r="J676" s="11"/>
-      <c r="K676" s="20"/>
+      <c r="K676" s="20" t="s">
+        <v>567</v>
+      </c>
     </row>
     <row r="677" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A677" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B677" s="20"/>
+      <c r="A677" s="40"/>
+      <c r="B677" s="20" t="s">
+        <v>117</v>
+      </c>
       <c r="C677" s="13"/>
       <c r="D677" s="39"/>
       <c r="E677" s="9"/>
@@ -18066,18 +18081,24 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H677" s="39"/>
+      <c r="H677" s="39">
+        <v>2</v>
+      </c>
       <c r="I677" s="9"/>
       <c r="J677" s="11"/>
-      <c r="K677" s="20"/>
+      <c r="K677" s="20" t="s">
+        <v>568</v>
+      </c>
     </row>
     <row r="678" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A678" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B678" s="20"/>
+      <c r="A678" s="40"/>
+      <c r="B678" s="20" t="s">
+        <v>176</v>
+      </c>
       <c r="C678" s="13"/>
-      <c r="D678" s="39"/>
+      <c r="D678" s="39">
+        <v>2</v>
+      </c>
       <c r="E678" s="9"/>
       <c r="F678" s="20"/>
       <c r="G678" s="13" t="str">
@@ -18087,11 +18108,13 @@
       <c r="H678" s="39"/>
       <c r="I678" s="9"/>
       <c r="J678" s="11"/>
-      <c r="K678" s="20"/>
+      <c r="K678" s="20" t="s">
+        <v>569</v>
+      </c>
     </row>
     <row r="679" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A679" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B679" s="20"/>
       <c r="C679" s="13"/>
@@ -18109,7 +18132,7 @@
     </row>
     <row r="680" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A680" s="40">
-        <v>45200</v>
+        <v>45139</v>
       </c>
       <c r="B680" s="20"/>
       <c r="C680" s="13"/>
@@ -18127,7 +18150,7 @@
     </row>
     <row r="681" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A681" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B681" s="20"/>
       <c r="C681" s="13"/>
@@ -18145,7 +18168,7 @@
     </row>
     <row r="682" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A682" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B682" s="20"/>
       <c r="C682" s="13"/>
@@ -18163,7 +18186,7 @@
     </row>
     <row r="683" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A683" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B683" s="20"/>
       <c r="C683" s="13"/>
@@ -18181,7 +18204,7 @@
     </row>
     <row r="684" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A684" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B684" s="20"/>
       <c r="C684" s="13"/>
@@ -18199,7 +18222,7 @@
     </row>
     <row r="685" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A685" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B685" s="20"/>
       <c r="C685" s="13"/>
@@ -18217,7 +18240,7 @@
     </row>
     <row r="686" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A686" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B686" s="20"/>
       <c r="C686" s="13"/>
@@ -18235,7 +18258,7 @@
     </row>
     <row r="687" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A687" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B687" s="20"/>
       <c r="C687" s="13"/>
@@ -18253,7 +18276,7 @@
     </row>
     <row r="688" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A688" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B688" s="20"/>
       <c r="C688" s="13"/>
@@ -18271,7 +18294,7 @@
     </row>
     <row r="689" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A689" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B689" s="20"/>
       <c r="C689" s="13"/>
@@ -18289,7 +18312,7 @@
     </row>
     <row r="690" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A690" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B690" s="20"/>
       <c r="C690" s="13"/>
@@ -18307,7 +18330,7 @@
     </row>
     <row r="691" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A691" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B691" s="20"/>
       <c r="C691" s="13"/>
@@ -18325,7 +18348,7 @@
     </row>
     <row r="692" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A692" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B692" s="20"/>
       <c r="C692" s="13"/>
@@ -18343,7 +18366,7 @@
     </row>
     <row r="693" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A693" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B693" s="20"/>
       <c r="C693" s="13"/>
@@ -18361,7 +18384,7 @@
     </row>
     <row r="694" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A694" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B694" s="20"/>
       <c r="C694" s="13"/>
@@ -18379,7 +18402,7 @@
     </row>
     <row r="695" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A695" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B695" s="20"/>
       <c r="C695" s="13"/>
@@ -18397,7 +18420,7 @@
     </row>
     <row r="696" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A696" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B696" s="20"/>
       <c r="C696" s="13"/>
@@ -18415,7 +18438,7 @@
     </row>
     <row r="697" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A697" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B697" s="20"/>
       <c r="C697" s="13"/>
@@ -18433,7 +18456,7 @@
     </row>
     <row r="698" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A698" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B698" s="20"/>
       <c r="C698" s="13"/>
@@ -18451,7 +18474,7 @@
     </row>
     <row r="699" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A699" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B699" s="20"/>
       <c r="C699" s="13"/>
@@ -18469,7 +18492,7 @@
     </row>
     <row r="700" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A700" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B700" s="20"/>
       <c r="C700" s="13"/>
@@ -18487,7 +18510,7 @@
     </row>
     <row r="701" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A701" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B701" s="20"/>
       <c r="C701" s="13"/>
@@ -18504,7 +18527,9 @@
       <c r="K701" s="20"/>
     </row>
     <row r="702" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A702" s="40"/>
+      <c r="A702" s="40">
+        <v>45809</v>
+      </c>
       <c r="B702" s="20"/>
       <c r="C702" s="13"/>
       <c r="D702" s="39"/>
@@ -18520,7 +18545,9 @@
       <c r="K702" s="20"/>
     </row>
     <row r="703" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A703" s="40"/>
+      <c r="A703" s="40">
+        <v>45839</v>
+      </c>
       <c r="B703" s="20"/>
       <c r="C703" s="13"/>
       <c r="D703" s="39"/>
@@ -18584,20 +18611,52 @@
       <c r="K706" s="20"/>
     </row>
     <row r="707" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A707" s="41"/>
-      <c r="B707" s="15"/>
-      <c r="C707" s="42"/>
-      <c r="D707" s="43"/>
+      <c r="A707" s="40"/>
+      <c r="B707" s="20"/>
+      <c r="C707" s="13"/>
+      <c r="D707" s="39"/>
       <c r="E707" s="9"/>
-      <c r="F707" s="15"/>
+      <c r="F707" s="20"/>
       <c r="G707" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H707" s="43"/>
+      <c r="H707" s="39"/>
       <c r="I707" s="9"/>
-      <c r="J707" s="12"/>
-      <c r="K707" s="15"/>
+      <c r="J707" s="11"/>
+      <c r="K707" s="20"/>
+    </row>
+    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A708" s="40"/>
+      <c r="B708" s="20"/>
+      <c r="C708" s="13"/>
+      <c r="D708" s="39"/>
+      <c r="E708" s="9"/>
+      <c r="F708" s="20"/>
+      <c r="G708" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H708" s="39"/>
+      <c r="I708" s="9"/>
+      <c r="J708" s="11"/>
+      <c r="K708" s="20"/>
+    </row>
+    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A709" s="41"/>
+      <c r="B709" s="15"/>
+      <c r="C709" s="42"/>
+      <c r="D709" s="43"/>
+      <c r="E709" s="9"/>
+      <c r="F709" s="15"/>
+      <c r="G709" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H709" s="43"/>
+      <c r="I709" s="9"/>
+      <c r="J709" s="12"/>
+      <c r="K709" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/OJT/NEW DONE/ALEGA, ESTELITA.xlsx
+++ b/REGULAR/OJT/NEW DONE/ALEGA, ESTELITA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75ABA2F4-7AAD-4ACD-99C8-33E0C4D7D5EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,28 +24,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="570">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="571">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1765,11 +1755,14 @@
   <si>
     <t>6/26-27/2023</t>
   </si>
+  <si>
+    <t>6/29,30/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2453,7 +2446,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2470,26 +2463,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K709" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K709"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K709" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K709" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2796,34 +2789,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K709"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="3510" topLeftCell="A664" activePane="bottomLeft"/>
+      <pane ySplit="3516" topLeftCell="A667" activePane="bottomLeft"/>
       <selection activeCell="B4" sqref="B4:C4"/>
-      <selection pane="bottomLeft" activeCell="K679" sqref="K679"/>
+      <selection pane="bottomLeft" activeCell="E673" sqref="E673"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2846,7 +2839,7 @@
       <c r="J2" s="55"/>
       <c r="K2" s="56"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2868,7 +2861,7 @@
       <c r="J3" s="57"/>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2890,7 +2883,7 @@
       <c r="J4" s="55"/>
       <c r="K4" s="56"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2898,7 +2891,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2911,7 +2904,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="53" t="s">
@@ -2928,7 +2921,7 @@
       <c r="J7" s="53"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2963,7 +2956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2972,7 +2965,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>14.637000000000114</v>
+        <v>17.137000000000114</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2982,12 +2975,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>14.129999999999995</v>
+        <v>14.629999999999995</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="49" t="s">
         <v>536</v>
       </c>
@@ -3002,7 +2995,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>36601</v>
       </c>
@@ -3026,7 +3019,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40"/>
       <c r="B12" s="20" t="s">
         <v>550</v>
@@ -3044,7 +3037,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>36617</v>
       </c>
@@ -3068,7 +3061,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>387</v>
@@ -3086,7 +3079,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>36647</v>
       </c>
@@ -3110,7 +3103,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>36678</v>
       </c>
@@ -3134,7 +3127,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>36708</v>
       </c>
@@ -3158,7 +3151,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>36739</v>
       </c>
@@ -3182,7 +3175,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>142</v>
@@ -3204,7 +3197,7 @@
         <v>36755</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>142</v>
@@ -3226,7 +3219,7 @@
         <v>36759</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>36770</v>
       </c>
@@ -3250,7 +3243,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>36800</v>
       </c>
@@ -3276,7 +3269,7 @@
         <v>36804</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>142</v>
@@ -3298,7 +3291,7 @@
         <v>36805</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="40"/>
       <c r="B24" s="20" t="s">
         <v>302</v>
@@ -3320,7 +3313,7 @@
         <v>36808</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40"/>
       <c r="B25" s="20" t="s">
         <v>421</v>
@@ -3342,7 +3335,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40"/>
       <c r="B26" s="20" t="s">
         <v>142</v>
@@ -3364,7 +3357,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>36831</v>
       </c>
@@ -3388,7 +3381,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40"/>
       <c r="B28" s="20" t="s">
         <v>544</v>
@@ -3408,7 +3401,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>36861</v>
       </c>
@@ -3434,7 +3427,7 @@
         <v>36861</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>117</v>
@@ -3456,7 +3449,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>547</v>
@@ -3476,7 +3469,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="49" t="s">
         <v>125</v>
       </c>
@@ -3494,7 +3487,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>36892</v>
       </c>
@@ -3520,7 +3513,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40"/>
       <c r="B34" s="20" t="s">
         <v>147</v>
@@ -3540,7 +3533,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>143</v>
@@ -3560,7 +3553,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>36923</v>
       </c>
@@ -3586,7 +3579,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40"/>
       <c r="B37" s="20" t="s">
         <v>231</v>
@@ -3606,7 +3599,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
         <v>36951</v>
       </c>
@@ -3632,7 +3625,7 @@
         <v>36593</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>259</v>
@@ -3652,7 +3645,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="48"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>36982</v>
       </c>
@@ -3676,7 +3669,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40"/>
       <c r="B41" s="20" t="s">
         <v>147</v>
@@ -3696,7 +3689,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>147</v>
@@ -3716,7 +3709,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>37012</v>
       </c>
@@ -3740,7 +3733,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>148</v>
@@ -3762,7 +3755,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40"/>
       <c r="B45" s="20" t="s">
         <v>142</v>
@@ -3784,7 +3777,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>37043</v>
       </c>
@@ -3808,7 +3801,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40"/>
       <c r="B47" s="20" t="s">
         <v>153</v>
@@ -3830,7 +3823,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>37073</v>
       </c>
@@ -3856,7 +3849,7 @@
         <v>37081</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>142</v>
@@ -3878,7 +3871,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40"/>
       <c r="B50" s="20" t="s">
         <v>155</v>
@@ -3900,7 +3893,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>37104</v>
       </c>
@@ -3926,7 +3919,7 @@
         <v>37112</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>142</v>
@@ -3948,7 +3941,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="40"/>
       <c r="B53" s="20" t="s">
         <v>157</v>
@@ -3968,7 +3961,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>37135</v>
       </c>
@@ -3994,7 +3987,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40"/>
       <c r="B55" s="20" t="s">
         <v>159</v>
@@ -4014,7 +4007,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>37165</v>
       </c>
@@ -4040,7 +4033,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>162</v>
@@ -4064,7 +4057,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>165</v>
@@ -4086,7 +4079,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>164</v>
@@ -4106,7 +4099,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>37196</v>
       </c>
@@ -4132,7 +4125,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>165</v>
@@ -4154,7 +4147,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>236</v>
@@ -4174,7 +4167,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40"/>
       <c r="B63" s="20" t="s">
         <v>167</v>
@@ -4194,7 +4187,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>37226</v>
       </c>
@@ -4220,7 +4213,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40"/>
       <c r="B65" s="20" t="s">
         <v>170</v>
@@ -4240,7 +4233,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="49" t="s">
         <v>141</v>
       </c>
@@ -4260,7 +4253,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>37257</v>
       </c>
@@ -4286,7 +4279,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>171</v>
@@ -4306,7 +4299,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>37288</v>
       </c>
@@ -4332,7 +4325,7 @@
         <v>37294</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40"/>
       <c r="B70" s="20" t="s">
         <v>142</v>
@@ -4354,7 +4347,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40"/>
       <c r="B71" s="20" t="s">
         <v>176</v>
@@ -4376,7 +4369,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40">
         <v>37316</v>
       </c>
@@ -4400,7 +4393,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
       <c r="B73" s="20" t="s">
         <v>174</v>
@@ -4422,7 +4415,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40"/>
       <c r="B74" s="20" t="s">
         <v>175</v>
@@ -4442,7 +4435,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>37347</v>
       </c>
@@ -4468,7 +4461,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>176</v>
@@ -4490,7 +4483,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>218</v>
@@ -4510,7 +4503,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>37377</v>
       </c>
@@ -4536,7 +4529,7 @@
         <v>37442</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40"/>
       <c r="B79" s="20" t="s">
         <v>165</v>
@@ -4560,7 +4553,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40"/>
       <c r="B80" s="20" t="s">
         <v>162</v>
@@ -4582,7 +4575,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>165</v>
@@ -4604,7 +4597,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>177</v>
@@ -4624,7 +4617,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="40">
         <v>37408</v>
       </c>
@@ -4650,7 +4643,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>165</v>
@@ -4672,7 +4665,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>178</v>
@@ -4690,7 +4683,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>37438</v>
       </c>
@@ -4716,7 +4709,7 @@
         <v>37536</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>191</v>
@@ -4740,7 +4733,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40"/>
       <c r="B88" s="20" t="s">
         <v>246</v>
@@ -4762,7 +4755,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40"/>
       <c r="B89" s="20" t="s">
         <v>309</v>
@@ -4782,7 +4775,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>37469</v>
       </c>
@@ -4808,7 +4801,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>37500</v>
       </c>
@@ -4834,7 +4827,7 @@
         <v>37508</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40"/>
       <c r="B92" s="20" t="s">
         <v>191</v>
@@ -4858,7 +4851,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>37530</v>
       </c>
@@ -4884,7 +4877,7 @@
         <v>37113</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40"/>
       <c r="B94" s="20" t="s">
         <v>174</v>
@@ -4908,7 +4901,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>37561</v>
       </c>
@@ -4934,7 +4927,7 @@
         <v>37357</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40"/>
       <c r="B96" s="20" t="s">
         <v>165</v>
@@ -4958,7 +4951,7 @@
         <v>37479</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40"/>
       <c r="B97" s="20" t="s">
         <v>165</v>
@@ -4980,7 +4973,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40"/>
       <c r="B98" s="20" t="s">
         <v>191</v>
@@ -5000,7 +4993,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40"/>
       <c r="B99" s="20" t="s">
         <v>195</v>
@@ -5020,7 +5013,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>37591</v>
       </c>
@@ -5046,7 +5039,7 @@
         <v>37602</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="49" t="s">
         <v>140</v>
       </c>
@@ -5064,7 +5057,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>37622</v>
       </c>
@@ -5086,7 +5079,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40"/>
       <c r="B103" s="20" t="s">
         <v>142</v>
@@ -5108,7 +5101,7 @@
         <v>37631</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40"/>
       <c r="B104" s="20" t="s">
         <v>165</v>
@@ -5132,7 +5125,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>147</v>
@@ -5152,7 +5145,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40"/>
       <c r="B106" s="20" t="s">
         <v>198</v>
@@ -5174,7 +5167,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="48"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>37653</v>
       </c>
@@ -5200,7 +5193,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>37681</v>
       </c>
@@ -5228,7 +5221,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40"/>
       <c r="B109" s="20" t="s">
         <v>202</v>
@@ -5248,7 +5241,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>37712</v>
       </c>
@@ -5276,7 +5269,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>236</v>
@@ -5298,7 +5291,7 @@
         <v>37746</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5316,7 +5309,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>37742</v>
       </c>
@@ -5340,7 +5333,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>37773</v>
       </c>
@@ -5366,7 +5359,7 @@
         <v>37747</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>191</v>
@@ -5390,7 +5383,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>37803</v>
       </c>
@@ -5416,7 +5409,7 @@
         <v>37871</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40"/>
       <c r="B117" s="20" t="s">
         <v>246</v>
@@ -5438,7 +5431,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40"/>
       <c r="B118" s="20" t="s">
         <v>207</v>
@@ -5458,7 +5451,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>37834</v>
       </c>
@@ -5486,7 +5479,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40"/>
       <c r="B120" s="20" t="s">
         <v>165</v>
@@ -5506,7 +5499,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40"/>
       <c r="B121" s="20" t="s">
         <v>165</v>
@@ -5528,7 +5521,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>37865</v>
       </c>
@@ -5554,7 +5547,7 @@
         <v>37964</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40"/>
       <c r="B123" s="20" t="s">
         <v>142</v>
@@ -5576,7 +5569,7 @@
         <v>45147</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40"/>
       <c r="B124" s="20" t="s">
         <v>211</v>
@@ -5598,7 +5591,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>37895</v>
       </c>
@@ -5624,7 +5617,7 @@
         <v>37782</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40"/>
       <c r="B126" s="20" t="s">
         <v>191</v>
@@ -5648,7 +5641,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40"/>
       <c r="B127" s="20" t="s">
         <v>165</v>
@@ -5670,7 +5663,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40"/>
       <c r="B128" s="20" t="s">
         <v>215</v>
@@ -5692,7 +5685,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>37926</v>
       </c>
@@ -5716,7 +5709,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>37956</v>
       </c>
@@ -5740,7 +5733,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40"/>
       <c r="B131" s="20" t="s">
         <v>220</v>
@@ -5760,7 +5753,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="49" t="s">
         <v>139</v>
       </c>
@@ -5778,7 +5771,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>37987</v>
       </c>
@@ -5804,7 +5797,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40"/>
       <c r="B134" s="20" t="s">
         <v>221</v>
@@ -5824,7 +5817,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>38018</v>
       </c>
@@ -5850,7 +5843,7 @@
         <v>37291</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40"/>
       <c r="B136" s="20" t="s">
         <v>147</v>
@@ -5870,7 +5863,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="40"/>
       <c r="B137" s="20" t="s">
         <v>223</v>
@@ -5890,7 +5883,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="48"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="40">
         <v>38047</v>
       </c>
@@ -5916,7 +5909,7 @@
         <v>38047</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="40"/>
       <c r="B139" s="20" t="s">
         <v>165</v>
@@ -5938,7 +5931,7 @@
         <v>38062</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="40"/>
       <c r="B140" s="20" t="s">
         <v>165</v>
@@ -5960,7 +5953,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="40"/>
       <c r="B141" s="20" t="s">
         <v>225</v>
@@ -5980,7 +5973,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="40">
         <v>38078</v>
       </c>
@@ -6006,7 +5999,7 @@
         <v>38142</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="40"/>
       <c r="B143" s="20" t="s">
         <v>165</v>
@@ -6030,7 +6023,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="40"/>
       <c r="B144" s="20" t="s">
         <v>165</v>
@@ -6052,7 +6045,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="40"/>
       <c r="B145" s="20" t="s">
         <v>224</v>
@@ -6072,7 +6065,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="48"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="40">
         <v>38108</v>
       </c>
@@ -6098,7 +6091,7 @@
         <v>38113</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="40"/>
       <c r="B147" s="20" t="s">
         <v>142</v>
@@ -6122,7 +6115,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="40"/>
       <c r="B148" s="20" t="s">
         <v>165</v>
@@ -6146,7 +6139,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="40"/>
       <c r="B149" s="20" t="s">
         <v>230</v>
@@ -6166,7 +6159,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="40">
         <v>38139</v>
       </c>
@@ -6186,7 +6179,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="48"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="40">
         <v>38169</v>
       </c>
@@ -6212,7 +6205,7 @@
         <v>38173</v>
       </c>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="40"/>
       <c r="B152" s="20" t="s">
         <v>165</v>
@@ -6236,7 +6229,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="40"/>
       <c r="B153" s="20" t="s">
         <v>231</v>
@@ -6256,7 +6249,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="48"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="40">
         <v>38200</v>
       </c>
@@ -6282,7 +6275,7 @@
         <v>38238</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="40"/>
       <c r="B155" s="20" t="s">
         <v>191</v>
@@ -6306,7 +6299,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="40"/>
       <c r="B156" s="20" t="s">
         <v>165</v>
@@ -6328,7 +6321,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="40"/>
       <c r="B157" s="20" t="s">
         <v>146</v>
@@ -6348,7 +6341,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="40">
         <v>38231</v>
       </c>
@@ -6374,7 +6367,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="40"/>
       <c r="B159" s="20" t="s">
         <v>236</v>
@@ -6396,7 +6389,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="40"/>
       <c r="B160" s="20" t="s">
         <v>238</v>
@@ -6416,7 +6409,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="40">
         <v>38261</v>
       </c>
@@ -6442,7 +6435,7 @@
         <v>37996</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="40"/>
       <c r="B162" s="20" t="s">
         <v>165</v>
@@ -6466,7 +6459,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="40"/>
       <c r="B163" s="20" t="s">
         <v>240</v>
@@ -6486,7 +6479,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="40">
         <v>38292</v>
       </c>
@@ -6512,7 +6505,7 @@
         <v>38028</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="40"/>
       <c r="B165" s="20" t="s">
         <v>165</v>
@@ -6536,7 +6529,7 @@
         <v>38149</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="40"/>
       <c r="B166" s="20" t="s">
         <v>165</v>
@@ -6558,7 +6551,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="40"/>
       <c r="B167" s="20" t="s">
         <v>242</v>
@@ -6578,7 +6571,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="40">
         <v>38322</v>
       </c>
@@ -6604,7 +6597,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="40"/>
       <c r="B169" s="20" t="s">
         <v>244</v>
@@ -6624,7 +6617,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="49" t="s">
         <v>138</v>
       </c>
@@ -6642,7 +6635,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="40">
         <v>38353</v>
       </c>
@@ -6664,7 +6657,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="40"/>
       <c r="B172" s="20" t="s">
         <v>142</v>
@@ -6686,7 +6679,7 @@
         <v>38365</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="40"/>
       <c r="B173" s="20" t="s">
         <v>236</v>
@@ -6710,7 +6703,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="40"/>
       <c r="B174" s="20" t="s">
         <v>147</v>
@@ -6730,7 +6723,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="40"/>
       <c r="B175" s="20" t="s">
         <v>147</v>
@@ -6750,7 +6743,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="40">
         <v>38384</v>
       </c>
@@ -6770,7 +6763,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="40">
         <v>38412</v>
       </c>
@@ -6796,7 +6789,7 @@
         <v>38428</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="40"/>
       <c r="B178" s="20" t="s">
         <v>142</v>
@@ -6818,7 +6811,7 @@
         <v>38438</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="40">
         <v>38443</v>
       </c>
@@ -6844,7 +6837,7 @@
         <v>38467</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="40">
         <v>38473</v>
       </c>
@@ -6870,7 +6863,7 @@
         <v>38482</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="40"/>
       <c r="B181" s="20" t="s">
         <v>142</v>
@@ -6892,7 +6885,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="20" t="s">
         <v>236</v>
@@ -6914,7 +6907,7 @@
         <v>38509</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="40">
         <v>38504</v>
       </c>
@@ -6940,7 +6933,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="40"/>
       <c r="B184" s="20" t="s">
         <v>165</v>
@@ -6964,7 +6957,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="40">
         <v>38534</v>
       </c>
@@ -6992,7 +6985,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="40">
         <v>38565</v>
       </c>
@@ -7012,7 +7005,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="40">
         <v>38596</v>
       </c>
@@ -7038,7 +7031,7 @@
         <v>38695</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="40"/>
       <c r="B188" s="20" t="s">
         <v>142</v>
@@ -7060,7 +7053,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="40">
         <v>38626</v>
       </c>
@@ -7086,7 +7079,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="40">
         <v>38657</v>
       </c>
@@ -7106,7 +7099,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="40">
         <v>38687</v>
       </c>
@@ -7132,7 +7125,7 @@
         <v>38607</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="40"/>
       <c r="B192" s="20" t="s">
         <v>142</v>
@@ -7154,7 +7147,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="40"/>
       <c r="B193" s="20" t="s">
         <v>254</v>
@@ -7174,7 +7167,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="49" t="s">
         <v>137</v>
       </c>
@@ -7196,7 +7189,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="40">
         <v>38718</v>
       </c>
@@ -7220,7 +7213,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="40"/>
       <c r="B196" s="20" t="s">
         <v>117</v>
@@ -7242,7 +7235,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="40"/>
       <c r="B197" s="20" t="s">
         <v>191</v>
@@ -7264,7 +7257,7 @@
       <c r="J197" s="11"/>
       <c r="K197" s="20"/>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="40"/>
       <c r="B198" s="20" t="s">
         <v>165</v>
@@ -7286,7 +7279,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="40">
         <v>38749</v>
       </c>
@@ -7310,7 +7303,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="40"/>
       <c r="B200" s="20" t="s">
         <v>142</v>
@@ -7332,7 +7325,7 @@
         <v>38962</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="40"/>
       <c r="B201" s="20" t="s">
         <v>259</v>
@@ -7352,7 +7345,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="40">
         <v>38777</v>
       </c>
@@ -7378,7 +7371,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="40"/>
       <c r="B203" s="20" t="s">
         <v>147</v>
@@ -7398,7 +7391,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="40"/>
       <c r="B204" s="20" t="s">
         <v>142</v>
@@ -7420,7 +7413,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="40"/>
       <c r="B205" s="20" t="s">
         <v>236</v>
@@ -7442,7 +7435,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="40"/>
       <c r="B206" s="20" t="s">
         <v>147</v>
@@ -7462,7 +7455,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="40">
         <v>38808</v>
       </c>
@@ -7490,7 +7483,7 @@
         <v>38810</v>
       </c>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="40"/>
       <c r="B208" s="20" t="s">
         <v>142</v>
@@ -7512,7 +7505,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="40"/>
       <c r="B209" s="20" t="s">
         <v>142</v>
@@ -7534,7 +7527,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="40"/>
       <c r="B210" s="20" t="s">
         <v>269</v>
@@ -7554,7 +7547,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="48"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="40">
         <v>38838</v>
       </c>
@@ -7580,7 +7573,7 @@
         <v>38812</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="40"/>
       <c r="B212" s="20" t="s">
         <v>270</v>
@@ -7602,7 +7595,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="48"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="40"/>
       <c r="B213" s="20" t="s">
         <v>147</v>
@@ -7622,7 +7615,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="40">
         <v>38869</v>
       </c>
@@ -7646,7 +7639,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="40">
         <v>38899</v>
       </c>
@@ -7672,7 +7665,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="40"/>
       <c r="B216" s="20" t="s">
         <v>273</v>
@@ -7692,7 +7685,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="40">
         <v>38930</v>
       </c>
@@ -7718,7 +7711,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="40"/>
       <c r="B218" s="20" t="s">
         <v>276</v>
@@ -7738,7 +7731,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="40">
         <v>38961</v>
       </c>
@@ -7764,7 +7757,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="40"/>
       <c r="B220" s="20" t="s">
         <v>560</v>
@@ -7784,7 +7777,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="40">
         <v>38991</v>
       </c>
@@ -7808,7 +7801,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="40">
         <v>39022</v>
       </c>
@@ -7834,7 +7827,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="40"/>
       <c r="B223" s="20" t="s">
         <v>142</v>
@@ -7856,7 +7849,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="40"/>
       <c r="B224" s="20" t="s">
         <v>278</v>
@@ -7876,7 +7869,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="40">
         <v>39052</v>
       </c>
@@ -7902,7 +7895,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="40"/>
       <c r="B226" s="20" t="s">
         <v>282</v>
@@ -7922,7 +7915,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="48"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="49" t="s">
         <v>136</v>
       </c>
@@ -7944,7 +7937,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="40">
         <v>39083</v>
       </c>
@@ -7968,7 +7961,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="40"/>
       <c r="B229" s="20" t="s">
         <v>142</v>
@@ -7990,7 +7983,7 @@
         <v>39091</v>
       </c>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="40"/>
       <c r="B230" s="20" t="s">
         <v>548</v>
@@ -8012,7 +8005,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="40"/>
       <c r="B231" s="20" t="s">
         <v>117</v>
@@ -8034,7 +8027,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="40">
         <v>39114</v>
       </c>
@@ -8058,7 +8051,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="40"/>
       <c r="B233" s="20" t="s">
         <v>142</v>
@@ -8080,7 +8073,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="40"/>
       <c r="B234" s="20" t="s">
         <v>142</v>
@@ -8100,7 +8093,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="40"/>
       <c r="B235" s="20" t="s">
         <v>288</v>
@@ -8120,7 +8113,7 @@
       <c r="J235" s="11"/>
       <c r="K235" s="20"/>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="40">
         <v>39142</v>
       </c>
@@ -8146,7 +8139,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="40"/>
       <c r="B237" s="20" t="s">
         <v>147</v>
@@ -8164,7 +8157,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="40"/>
       <c r="B238" s="20" t="s">
         <v>147</v>
@@ -8184,7 +8177,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="40"/>
       <c r="B239" s="20" t="s">
         <v>549</v>
@@ -8204,7 +8197,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="40">
         <v>39173</v>
       </c>
@@ -8232,7 +8225,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>292</v>
@@ -8252,7 +8245,7 @@
       <c r="J241" s="11"/>
       <c r="K241" s="20"/>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>142</v>
@@ -8270,7 +8263,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="40">
         <v>39203</v>
       </c>
@@ -8296,7 +8289,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="40"/>
       <c r="B244" s="20" t="s">
         <v>293</v>
@@ -8316,7 +8309,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="40"/>
       <c r="B245" s="20" t="s">
         <v>236</v>
@@ -8338,7 +8331,7 @@
         <v>39237</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="40">
         <v>39234</v>
       </c>
@@ -8364,7 +8357,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="40"/>
       <c r="B247" s="20" t="s">
         <v>142</v>
@@ -8386,7 +8379,7 @@
         <v>39245</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="40"/>
       <c r="B248" s="20" t="s">
         <v>295</v>
@@ -8406,7 +8399,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="40">
         <v>39264</v>
       </c>
@@ -8432,7 +8425,7 @@
         <v>39332</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="40"/>
       <c r="B250" s="20" t="s">
         <v>216</v>
@@ -8456,7 +8449,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="40">
         <v>39295</v>
       </c>
@@ -8482,7 +8475,7 @@
         <v>39302</v>
       </c>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="40"/>
       <c r="B252" s="20" t="s">
         <v>509</v>
@@ -8502,7 +8495,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="48"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="40">
         <v>39326</v>
       </c>
@@ -8528,7 +8521,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="40"/>
       <c r="B254" s="20" t="s">
         <v>162</v>
@@ -8548,7 +8541,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="40"/>
       <c r="B255" s="20" t="s">
         <v>299</v>
@@ -8568,7 +8561,7 @@
       <c r="J255" s="11"/>
       <c r="K255" s="20"/>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="40"/>
       <c r="B256" s="20" t="s">
         <v>300</v>
@@ -8588,7 +8581,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="40">
         <v>39356</v>
       </c>
@@ -8614,7 +8607,7 @@
         <v>39092</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="40"/>
       <c r="B258" s="20" t="s">
         <v>301</v>
@@ -8636,7 +8629,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="40"/>
       <c r="B259" s="20" t="s">
         <v>142</v>
@@ -8658,7 +8651,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="40"/>
       <c r="B260" s="20" t="s">
         <v>302</v>
@@ -8678,7 +8671,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="40"/>
       <c r="B261" s="20" t="s">
         <v>303</v>
@@ -8698,7 +8691,7 @@
       <c r="J261" s="11"/>
       <c r="K261" s="20"/>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="40"/>
       <c r="B262" s="20" t="s">
         <v>273</v>
@@ -8718,7 +8711,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="40"/>
       <c r="B263" s="20" t="s">
         <v>300</v>
@@ -8738,7 +8731,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="40">
         <v>39387</v>
       </c>
@@ -8764,7 +8757,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="40"/>
       <c r="B265" s="20" t="s">
         <v>165</v>
@@ -8786,7 +8779,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="40"/>
       <c r="B266" s="20" t="s">
         <v>191</v>
@@ -8808,7 +8801,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="40"/>
       <c r="B267" s="20" t="s">
         <v>308</v>
@@ -8828,7 +8821,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="40">
         <v>39417</v>
       </c>
@@ -8854,7 +8847,7 @@
         <v>39422</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="40"/>
       <c r="B269" s="20" t="s">
         <v>562</v>
@@ -8874,7 +8867,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="40"/>
       <c r="B270" s="20" t="s">
         <v>142</v>
@@ -8894,7 +8887,7 @@
         <v>39808</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="40"/>
       <c r="B271" s="20" t="s">
         <v>236</v>
@@ -8914,7 +8907,7 @@
         <v>39454</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="49" t="s">
         <v>135</v>
       </c>
@@ -8936,7 +8929,7 @@
       <c r="J272" s="11"/>
       <c r="K272" s="20"/>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="40">
         <v>39448</v>
       </c>
@@ -8960,7 +8953,7 @@
         <v>39449</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="40"/>
       <c r="B274" s="20" t="s">
         <v>309</v>
@@ -8982,7 +8975,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="40"/>
       <c r="B275" s="20" t="s">
         <v>142</v>
@@ -9002,7 +8995,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="40"/>
       <c r="B276" s="20" t="s">
         <v>312</v>
@@ -9022,7 +9015,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="48"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="40"/>
       <c r="B277" s="20" t="s">
         <v>313</v>
@@ -9042,7 +9035,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="48"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="40">
         <v>39479</v>
       </c>
@@ -9066,7 +9059,7 @@
         <v>39601</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="40"/>
       <c r="B279" s="20" t="s">
         <v>165</v>
@@ -9088,7 +9081,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="48"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="40"/>
       <c r="B280" s="20" t="s">
         <v>314</v>
@@ -9108,7 +9101,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="48"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="40"/>
       <c r="B281" s="20" t="s">
         <v>315</v>
@@ -9128,7 +9121,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="48"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="40">
         <v>39508</v>
       </c>
@@ -9154,7 +9147,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="40"/>
       <c r="B283" s="20" t="s">
         <v>317</v>
@@ -9174,7 +9167,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="40"/>
       <c r="B284" s="20" t="s">
         <v>318</v>
@@ -9194,7 +9187,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="40">
         <v>39539</v>
       </c>
@@ -9218,7 +9211,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="40"/>
       <c r="B286" s="20" t="s">
         <v>320</v>
@@ -9242,7 +9235,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="40"/>
       <c r="B287" s="20" t="s">
         <v>322</v>
@@ -9262,7 +9255,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="40"/>
       <c r="B288" s="20" t="s">
         <v>323</v>
@@ -9282,7 +9275,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="40">
         <v>39569</v>
       </c>
@@ -9306,7 +9299,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="40"/>
       <c r="B290" s="20" t="s">
         <v>324</v>
@@ -9326,7 +9319,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="40"/>
       <c r="B291" s="20" t="s">
         <v>325</v>
@@ -9346,7 +9339,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="40">
         <v>39600</v>
       </c>
@@ -9372,7 +9365,7 @@
         <v>39574</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="40"/>
       <c r="B293" s="20" t="s">
         <v>165</v>
@@ -9396,7 +9389,7 @@
         <v>39727</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="40"/>
       <c r="B294" s="20" t="s">
         <v>326</v>
@@ -9416,7 +9409,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="48"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="40"/>
       <c r="B295" s="20" t="s">
         <v>325</v>
@@ -9436,7 +9429,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="48"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="40">
         <v>39630</v>
       </c>
@@ -9462,7 +9455,7 @@
         <v>39545</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="40"/>
       <c r="B297" s="20" t="s">
         <v>191</v>
@@ -9486,7 +9479,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="40"/>
       <c r="B298" s="20" t="s">
         <v>177</v>
@@ -9506,7 +9499,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="48"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="40">
         <v>39661</v>
       </c>
@@ -9534,7 +9527,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="40"/>
       <c r="B300" s="20" t="s">
         <v>325</v>
@@ -9554,7 +9547,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="40"/>
       <c r="B301" s="20" t="s">
         <v>329</v>
@@ -9576,7 +9569,7 @@
         <v>39516</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="40">
         <v>39692</v>
       </c>
@@ -9598,7 +9591,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="40"/>
       <c r="B303" s="20" t="s">
         <v>330</v>
@@ -9622,7 +9615,7 @@
         <v>39791</v>
       </c>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="40"/>
       <c r="B304" s="20" t="s">
         <v>165</v>
@@ -9644,7 +9637,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="40"/>
       <c r="B305" s="20" t="s">
         <v>332</v>
@@ -9664,7 +9657,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="48"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="40"/>
       <c r="B306" s="20" t="s">
         <v>323</v>
@@ -9684,7 +9677,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="48"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="40">
         <v>39722</v>
       </c>
@@ -9712,7 +9705,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="40"/>
       <c r="B308" s="20" t="s">
         <v>165</v>
@@ -9734,7 +9727,7 @@
         <v>39731</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="40"/>
       <c r="B309" s="20" t="s">
         <v>170</v>
@@ -9754,7 +9747,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="48"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="40"/>
       <c r="B310" s="20" t="s">
         <v>325</v>
@@ -9774,7 +9767,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="48"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="40">
         <v>39753</v>
       </c>
@@ -9800,7 +9793,7 @@
         <v>39756</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="40"/>
       <c r="B312" s="20" t="s">
         <v>165</v>
@@ -9824,7 +9817,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="40"/>
       <c r="B313" s="20" t="s">
         <v>323</v>
@@ -9844,7 +9837,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="48"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="40"/>
       <c r="B314" s="20" t="s">
         <v>334</v>
@@ -9864,7 +9857,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="48"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="40">
         <v>39783</v>
       </c>
@@ -9888,7 +9881,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="40"/>
       <c r="B316" s="20" t="s">
         <v>336</v>
@@ -9908,7 +9901,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="49" t="s">
         <v>134</v>
       </c>
@@ -9930,7 +9923,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="40">
         <v>39814</v>
       </c>
@@ -9956,7 +9949,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="40"/>
       <c r="B319" s="20" t="s">
         <v>147</v>
@@ -9976,7 +9969,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="40"/>
       <c r="B320" s="20" t="s">
         <v>165</v>
@@ -9998,7 +9991,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="40"/>
       <c r="B321" s="20" t="s">
         <v>147</v>
@@ -10018,7 +10011,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="40"/>
       <c r="B322" s="20" t="s">
         <v>341</v>
@@ -10038,7 +10031,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="40">
         <v>39845</v>
       </c>
@@ -10062,7 +10055,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="40"/>
       <c r="B324" s="20" t="s">
         <v>343</v>
@@ -10082,7 +10075,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="40">
         <v>39873</v>
       </c>
@@ -10108,7 +10101,7 @@
         <v>39847</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="40"/>
       <c r="B326" s="20" t="s">
         <v>142</v>
@@ -10130,7 +10123,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="40"/>
       <c r="B327" s="20" t="s">
         <v>345</v>
@@ -10150,7 +10143,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="48"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="40">
         <v>39904</v>
       </c>
@@ -10176,7 +10169,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="40"/>
       <c r="B329" s="20" t="s">
         <v>165</v>
@@ -10200,7 +10193,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="40"/>
       <c r="B330" s="20" t="s">
         <v>348</v>
@@ -10220,7 +10213,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="40">
         <v>39934</v>
       </c>
@@ -10246,7 +10239,7 @@
         <v>40122</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="40"/>
       <c r="B332" s="20" t="s">
         <v>349</v>
@@ -10266,7 +10259,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="48"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="40"/>
       <c r="B333" s="20" t="s">
         <v>142</v>
@@ -10288,7 +10281,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="40">
         <v>39965</v>
       </c>
@@ -10316,7 +10309,7 @@
         <v>39819</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="40"/>
       <c r="B335" s="20" t="s">
         <v>216</v>
@@ -10340,7 +10333,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="40"/>
       <c r="B336" s="20" t="s">
         <v>352</v>
@@ -10360,7 +10353,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="48"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="40">
         <v>39995</v>
       </c>
@@ -10384,7 +10377,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="40">
         <v>40026</v>
       </c>
@@ -10408,7 +10401,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="40">
         <v>40057</v>
       </c>
@@ -10434,7 +10427,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="40"/>
       <c r="B340" s="20" t="s">
         <v>142</v>
@@ -10456,7 +10449,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="40"/>
       <c r="B341" s="20" t="s">
         <v>357</v>
@@ -10476,7 +10469,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="40">
         <v>40087</v>
       </c>
@@ -10502,7 +10495,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="40"/>
       <c r="B343" s="20" t="s">
         <v>358</v>
@@ -10522,7 +10515,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="40">
         <v>40118</v>
       </c>
@@ -10546,7 +10539,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="40">
         <v>40148</v>
       </c>
@@ -10570,7 +10563,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="49" t="s">
         <v>133</v>
       </c>
@@ -10592,7 +10585,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="40">
         <v>40179</v>
       </c>
@@ -10616,7 +10609,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="40"/>
       <c r="B348" s="20" t="s">
         <v>147</v>
@@ -10636,7 +10629,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="40"/>
       <c r="B349" s="20" t="s">
         <v>195</v>
@@ -10656,7 +10649,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="40">
         <v>40210</v>
       </c>
@@ -10680,7 +10673,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="40"/>
       <c r="B351" s="20" t="s">
         <v>142</v>
@@ -10702,7 +10695,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="40"/>
       <c r="B352" s="20" t="s">
         <v>336</v>
@@ -10722,7 +10715,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="40">
         <v>40238</v>
       </c>
@@ -10746,7 +10739,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="40">
         <v>40269</v>
       </c>
@@ -10772,7 +10765,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="40"/>
       <c r="B355" s="20" t="s">
         <v>369</v>
@@ -10792,7 +10785,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="40">
         <v>40299</v>
       </c>
@@ -10818,7 +10811,7 @@
         <v>40310</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="40"/>
       <c r="B357" s="20" t="s">
         <v>370</v>
@@ -10838,7 +10831,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="48"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="40">
         <v>40330</v>
       </c>
@@ -10864,7 +10857,7 @@
         <v>40330</v>
       </c>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="40"/>
       <c r="B359" s="20" t="s">
         <v>371</v>
@@ -10884,7 +10877,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="48"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="40">
         <v>40360</v>
       </c>
@@ -10910,7 +10903,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="40"/>
       <c r="B361" s="20" t="s">
         <v>373</v>
@@ -10932,7 +10925,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="40"/>
       <c r="B362" s="20" t="s">
         <v>375</v>
@@ -10952,7 +10945,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="40">
         <v>40391</v>
       </c>
@@ -10976,7 +10969,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="40">
         <v>40422</v>
       </c>
@@ -11000,7 +10993,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="40">
         <v>40452</v>
       </c>
@@ -11026,7 +11019,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="40"/>
       <c r="B366" s="20" t="s">
         <v>117</v>
@@ -11048,7 +11041,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="40"/>
       <c r="B367" s="20" t="s">
         <v>382</v>
@@ -11068,7 +11061,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="40">
         <v>40483</v>
       </c>
@@ -11094,7 +11087,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="40"/>
       <c r="B369" s="20" t="s">
         <v>381</v>
@@ -11114,7 +11107,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="40">
         <v>40513</v>
       </c>
@@ -11138,7 +11131,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="49" t="s">
         <v>132</v>
       </c>
@@ -11160,7 +11153,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="40">
         <v>40544</v>
       </c>
@@ -11184,7 +11177,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="40"/>
       <c r="B373" s="20" t="s">
         <v>117</v>
@@ -11206,7 +11199,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="40"/>
       <c r="B374" s="20" t="s">
         <v>385</v>
@@ -11228,7 +11221,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="40">
         <v>40575</v>
       </c>
@@ -11252,7 +11245,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="40"/>
       <c r="B376" s="20" t="s">
         <v>200</v>
@@ -11276,7 +11269,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="40"/>
       <c r="B377" s="20" t="s">
         <v>165</v>
@@ -11298,7 +11291,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="40"/>
       <c r="B378" s="20" t="s">
         <v>391</v>
@@ -11318,7 +11311,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="40">
         <v>40603</v>
       </c>
@@ -11344,7 +11337,7 @@
         <v>40577</v>
       </c>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="40"/>
       <c r="B380" s="20" t="s">
         <v>392</v>
@@ -11368,7 +11361,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="40">
         <v>40634</v>
       </c>
@@ -11388,7 +11381,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="40">
         <v>40664</v>
       </c>
@@ -11414,7 +11407,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="40">
         <v>40695</v>
       </c>
@@ -11440,7 +11433,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="40">
         <v>40725</v>
       </c>
@@ -11460,7 +11453,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="40">
         <v>40756</v>
       </c>
@@ -11486,7 +11479,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="40">
         <v>40787</v>
       </c>
@@ -11510,7 +11503,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="40"/>
       <c r="B387" s="20" t="s">
         <v>399</v>
@@ -11530,7 +11523,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="40"/>
       <c r="B388" s="20" t="s">
         <v>400</v>
@@ -11550,7 +11543,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="40">
         <v>40817</v>
       </c>
@@ -11574,7 +11567,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="40">
         <v>40848</v>
       </c>
@@ -11600,7 +11593,7 @@
         <v>40585</v>
       </c>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40"/>
       <c r="B391" s="20" t="s">
         <v>142</v>
@@ -11622,7 +11615,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40"/>
       <c r="B392" s="20" t="s">
         <v>142</v>
@@ -11644,7 +11637,7 @@
         <v>40586</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40">
         <v>40878</v>
       </c>
@@ -11668,7 +11661,7 @@
         <v>40736</v>
       </c>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40"/>
       <c r="B394" s="20" t="s">
         <v>396</v>
@@ -11688,7 +11681,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40"/>
       <c r="B395" s="20" t="s">
         <v>396</v>
@@ -11708,7 +11701,7 @@
         <v>40767</v>
       </c>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="40"/>
       <c r="B396" s="20" t="s">
         <v>142</v>
@@ -11730,7 +11723,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40"/>
       <c r="B397" s="20" t="s">
         <v>404</v>
@@ -11750,7 +11743,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="48"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="49" t="s">
         <v>131</v>
       </c>
@@ -11772,7 +11765,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>40909</v>
       </c>
@@ -11796,7 +11789,7 @@
         <v>41030</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40"/>
       <c r="B400" s="20" t="s">
         <v>405</v>
@@ -11816,7 +11809,7 @@
         <v>41061</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40"/>
       <c r="B401" s="20" t="s">
         <v>147</v>
@@ -11836,7 +11829,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40"/>
       <c r="B402" s="20" t="s">
         <v>142</v>
@@ -11858,7 +11851,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40"/>
       <c r="B403" s="20" t="s">
         <v>406</v>
@@ -11878,7 +11871,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="40">
         <v>40940</v>
       </c>
@@ -11902,7 +11895,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40"/>
       <c r="B405" s="20" t="s">
         <v>142</v>
@@ -11924,7 +11917,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40"/>
       <c r="B406" s="20" t="s">
         <v>396</v>
@@ -11944,7 +11937,7 @@
         <v>41124</v>
       </c>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20" t="s">
         <v>411</v>
@@ -11964,7 +11957,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>40969</v>
       </c>
@@ -11990,7 +11983,7 @@
         <v>40971</v>
       </c>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40"/>
       <c r="B409" s="20" t="s">
         <v>396</v>
@@ -12010,7 +12003,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="40"/>
       <c r="B410" s="20" t="s">
         <v>142</v>
@@ -12032,7 +12025,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40"/>
       <c r="B411" s="20" t="s">
         <v>414</v>
@@ -12052,7 +12045,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="48"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>41000</v>
       </c>
@@ -12076,7 +12069,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>41030</v>
       </c>
@@ -12102,7 +12095,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40"/>
       <c r="B414" s="20" t="s">
         <v>417</v>
@@ -12122,7 +12115,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40"/>
       <c r="B415" s="20" t="s">
         <v>396</v>
@@ -12142,7 +12135,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40"/>
       <c r="B416" s="20" t="s">
         <v>420</v>
@@ -12162,7 +12155,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>41061</v>
       </c>
@@ -12188,7 +12181,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="40"/>
       <c r="B418" s="20" t="s">
         <v>422</v>
@@ -12208,7 +12201,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>41091</v>
       </c>
@@ -12234,7 +12227,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40"/>
       <c r="B420" s="20" t="s">
         <v>425</v>
@@ -12254,7 +12247,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="48"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>41122</v>
       </c>
@@ -12280,7 +12273,7 @@
         <v>41069</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40"/>
       <c r="B422" s="20" t="s">
         <v>117</v>
@@ -12302,7 +12295,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40"/>
       <c r="B423" s="20" t="s">
         <v>425</v>
@@ -12322,7 +12315,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="48"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>41153</v>
       </c>
@@ -12348,7 +12341,7 @@
         <v>40918</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40"/>
       <c r="B425" s="20" t="s">
         <v>142</v>
@@ -12368,7 +12361,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="48"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40"/>
       <c r="B426" s="20" t="s">
         <v>428</v>
@@ -12388,7 +12381,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="48"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>41183</v>
       </c>
@@ -12414,7 +12407,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40"/>
       <c r="B428" s="20" t="s">
         <v>427</v>
@@ -12434,7 +12427,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>41214</v>
       </c>
@@ -12460,7 +12453,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40"/>
       <c r="B430" s="20" t="s">
         <v>431</v>
@@ -12480,7 +12473,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="40">
         <v>41244</v>
       </c>
@@ -12506,7 +12499,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40"/>
       <c r="B432" s="20" t="s">
         <v>434</v>
@@ -12526,7 +12519,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="49" t="s">
         <v>130</v>
       </c>
@@ -12548,7 +12541,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>41275</v>
       </c>
@@ -12572,7 +12565,7 @@
         <v>41365</v>
       </c>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40"/>
       <c r="B435" s="20" t="s">
         <v>147</v>
@@ -12592,7 +12585,7 @@
         <v>41487</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40"/>
       <c r="B436" s="20" t="s">
         <v>435</v>
@@ -12612,7 +12605,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>41306</v>
       </c>
@@ -12636,7 +12629,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>41334</v>
       </c>
@@ -12660,7 +12653,7 @@
         <v>41279</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>41365</v>
       </c>
@@ -12686,7 +12679,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40"/>
       <c r="B440" s="20" t="s">
         <v>438</v>
@@ -12708,7 +12701,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>41395</v>
       </c>
@@ -12730,7 +12723,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>41426</v>
       </c>
@@ -12754,7 +12747,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40"/>
       <c r="B443" s="20" t="s">
         <v>442</v>
@@ -12774,7 +12767,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="40">
         <v>41456</v>
       </c>
@@ -12798,7 +12791,7 @@
         <v>41401</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40"/>
       <c r="B445" s="20" t="s">
         <v>176</v>
@@ -12820,7 +12813,7 @@
         <v>41615</v>
       </c>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40"/>
       <c r="B446" s="20" t="s">
         <v>176</v>
@@ -12842,7 +12835,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40"/>
       <c r="B447" s="20" t="s">
         <v>117</v>
@@ -12864,7 +12857,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40"/>
       <c r="B448" s="20" t="s">
         <v>117</v>
@@ -12886,7 +12879,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>41487</v>
       </c>
@@ -12912,7 +12905,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40"/>
       <c r="B450" s="20" t="s">
         <v>447</v>
@@ -12932,7 +12925,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>41518</v>
       </c>
@@ -12956,7 +12949,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40"/>
       <c r="B452" s="20" t="s">
         <v>449</v>
@@ -12976,7 +12969,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>41548</v>
       </c>
@@ -13000,7 +12993,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>41579</v>
       </c>
@@ -13020,7 +13013,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>41609</v>
       </c>
@@ -13046,7 +13039,7 @@
         <v>41590</v>
       </c>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="49" t="s">
         <v>129</v>
       </c>
@@ -13068,7 +13061,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="40">
         <v>41640</v>
       </c>
@@ -13092,7 +13085,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>41671</v>
       </c>
@@ -13116,7 +13109,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40"/>
       <c r="B459" s="20" t="s">
         <v>147</v>
@@ -13136,7 +13129,7 @@
         <v>41793</v>
       </c>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40"/>
       <c r="B460" s="20" t="s">
         <v>451</v>
@@ -13156,7 +13149,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>41699</v>
       </c>
@@ -13182,7 +13175,7 @@
         <v>41823</v>
       </c>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40"/>
       <c r="B462" s="20" t="s">
         <v>176</v>
@@ -13204,7 +13197,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40"/>
       <c r="B463" s="20" t="s">
         <v>453</v>
@@ -13226,7 +13219,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>41730</v>
       </c>
@@ -13250,7 +13243,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40"/>
       <c r="B465" s="20" t="s">
         <v>117</v>
@@ -13272,7 +13265,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40"/>
       <c r="B466" s="20" t="s">
         <v>456</v>
@@ -13292,7 +13285,7 @@
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40"/>
       <c r="B467" s="20" t="s">
         <v>421</v>
@@ -13314,7 +13307,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>41760</v>
       </c>
@@ -13340,7 +13333,7 @@
         <v>41795</v>
       </c>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40"/>
       <c r="B469" s="20" t="s">
         <v>117</v>
@@ -13362,7 +13355,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40"/>
       <c r="B470" s="20" t="s">
         <v>195</v>
@@ -13382,7 +13375,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="48"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>41791</v>
       </c>
@@ -13408,7 +13401,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40"/>
       <c r="B472" s="20" t="s">
         <v>142</v>
@@ -13430,7 +13423,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40"/>
       <c r="B473" s="20" t="s">
         <v>142</v>
@@ -13452,7 +13445,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40"/>
       <c r="B474" s="20" t="s">
         <v>462</v>
@@ -13472,7 +13465,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>41821</v>
       </c>
@@ -13498,7 +13491,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40"/>
       <c r="B476" s="20" t="s">
         <v>464</v>
@@ -13520,7 +13513,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40"/>
       <c r="B477" s="20" t="s">
         <v>466</v>
@@ -13540,7 +13533,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>41852</v>
       </c>
@@ -13566,7 +13559,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40"/>
       <c r="B479" s="20" t="s">
         <v>468</v>
@@ -13586,7 +13579,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>41883</v>
       </c>
@@ -13612,7 +13605,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40"/>
       <c r="B481" s="20" t="s">
         <v>470</v>
@@ -13632,7 +13625,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>41913</v>
       </c>
@@ -13656,7 +13649,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>41944</v>
       </c>
@@ -13682,7 +13675,7 @@
         <v>41740</v>
       </c>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40"/>
       <c r="B484" s="20" t="s">
         <v>142</v>
@@ -13704,7 +13697,7 @@
         <v>41862</v>
       </c>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>41974</v>
       </c>
@@ -13730,7 +13723,7 @@
         <v>41894</v>
       </c>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40"/>
       <c r="B486" s="20" t="s">
         <v>471</v>
@@ -13750,7 +13743,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="48"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="49" t="s">
         <v>128</v>
       </c>
@@ -13772,7 +13765,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>42005</v>
       </c>
@@ -13796,7 +13789,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40"/>
       <c r="B489" s="20" t="s">
         <v>147</v>
@@ -13816,7 +13809,7 @@
         <v>42156</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40"/>
       <c r="B490" s="20" t="s">
         <v>142</v>
@@ -13836,7 +13829,7 @@
         <v>42339</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40"/>
       <c r="B491" s="20" t="s">
         <v>472</v>
@@ -13856,7 +13849,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="48"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>42036</v>
       </c>
@@ -13882,7 +13875,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40"/>
       <c r="B493" s="20" t="s">
         <v>142</v>
@@ -13904,7 +13897,7 @@
         <v>42310</v>
       </c>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40"/>
       <c r="B494" s="20" t="s">
         <v>474</v>
@@ -13924,7 +13917,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="48"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>42064</v>
       </c>
@@ -13950,7 +13943,7 @@
         <v>42341</v>
       </c>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40"/>
       <c r="B496" s="20" t="s">
         <v>236</v>
@@ -13972,7 +13965,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>142</v>
@@ -13994,7 +13987,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40"/>
       <c r="B498" s="20" t="s">
         <v>477</v>
@@ -14014,7 +14007,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="48"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>42095</v>
       </c>
@@ -14040,7 +14033,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40"/>
       <c r="B500" s="20" t="s">
         <v>147</v>
@@ -14060,7 +14053,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40"/>
       <c r="B501" s="20" t="s">
         <v>165</v>
@@ -14082,7 +14075,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40"/>
       <c r="B502" s="20" t="s">
         <v>165</v>
@@ -14104,7 +14097,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40"/>
       <c r="B503" s="20" t="s">
         <v>482</v>
@@ -14124,7 +14117,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>42125</v>
       </c>
@@ -14150,7 +14143,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>484</v>
@@ -14170,7 +14163,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>42156</v>
       </c>
@@ -14196,7 +14189,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>486</v>
@@ -14216,7 +14209,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>42186</v>
       </c>
@@ -14240,7 +14233,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40"/>
       <c r="B509" s="20" t="s">
         <v>142</v>
@@ -14262,7 +14255,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>42217</v>
       </c>
@@ -14288,7 +14281,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40"/>
       <c r="B511" s="20" t="s">
         <v>488</v>
@@ -14308,7 +14301,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A512" s="40"/>
       <c r="B512" s="20" t="s">
         <v>142</v>
@@ -14330,7 +14323,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A513" s="40"/>
       <c r="B513" s="20" t="s">
         <v>370</v>
@@ -14350,7 +14343,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A514" s="40">
         <v>42248</v>
       </c>
@@ -14376,7 +14369,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A515" s="40"/>
       <c r="B515" s="20" t="s">
         <v>491</v>
@@ -14396,7 +14389,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A516" s="40">
         <v>42278</v>
       </c>
@@ -14422,7 +14415,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A517" s="40"/>
       <c r="B517" s="20" t="s">
         <v>494</v>
@@ -14442,7 +14435,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A518" s="40">
         <v>42309</v>
       </c>
@@ -14468,7 +14461,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>496</v>
@@ -14488,7 +14481,7 @@
       <c r="J519" s="11"/>
       <c r="K519" s="20"/>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A520" s="40">
         <v>42339</v>
       </c>
@@ -14514,7 +14507,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>498</v>
@@ -14534,7 +14527,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A522" s="49" t="s">
         <v>127</v>
       </c>
@@ -14556,7 +14549,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A523" s="40">
         <v>42370</v>
       </c>
@@ -14580,7 +14573,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A524" s="40"/>
       <c r="B524" s="20" t="s">
         <v>142</v>
@@ -14602,7 +14595,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A525" s="40"/>
       <c r="B525" s="20" t="s">
         <v>500</v>
@@ -14622,7 +14615,7 @@
       <c r="J525" s="11"/>
       <c r="K525" s="48"/>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A526" s="40">
         <v>42401</v>
       </c>
@@ -14646,7 +14639,7 @@
         <v>42492</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A527" s="40"/>
       <c r="B527" s="20" t="s">
         <v>142</v>
@@ -14668,7 +14661,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A528" s="40"/>
       <c r="B528" s="20" t="s">
         <v>502</v>
@@ -14688,7 +14681,7 @@
       <c r="J528" s="11"/>
       <c r="K528" s="48"/>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A529" s="40">
         <v>42430</v>
       </c>
@@ -14714,7 +14707,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A530" s="40"/>
       <c r="B530" s="20" t="s">
         <v>147</v>
@@ -14734,7 +14727,7 @@
         <v>42586</v>
       </c>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A531" s="40"/>
       <c r="B531" s="20" t="s">
         <v>504</v>
@@ -14754,7 +14747,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="48"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A532" s="40">
         <v>42461</v>
       </c>
@@ -14780,7 +14773,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A533" s="40"/>
       <c r="B533" s="20" t="s">
         <v>506</v>
@@ -14800,7 +14793,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A534" s="40">
         <v>42491</v>
       </c>
@@ -14826,7 +14819,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A535" s="40"/>
       <c r="B535" s="20" t="s">
         <v>146</v>
@@ -14846,7 +14839,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A536" s="40">
         <v>42522</v>
       </c>
@@ -14872,7 +14865,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A537" s="40"/>
       <c r="B537" s="20" t="s">
         <v>308</v>
@@ -14892,7 +14885,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A538" s="40">
         <v>42552</v>
       </c>
@@ -14916,7 +14909,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A539" s="40">
         <v>42583</v>
       </c>
@@ -14942,7 +14935,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A540" s="40"/>
       <c r="B540" s="20" t="s">
         <v>511</v>
@@ -14962,7 +14955,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A541" s="40">
         <v>42614</v>
       </c>
@@ -14988,7 +14981,7 @@
         <v>43709</v>
       </c>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A542" s="40"/>
       <c r="B542" s="20" t="s">
         <v>142</v>
@@ -15010,7 +15003,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40"/>
       <c r="B543" s="20" t="s">
         <v>513</v>
@@ -15030,7 +15023,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="50"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
         <v>42644</v>
       </c>
@@ -15056,7 +15049,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40"/>
       <c r="B545" s="20" t="s">
         <v>515</v>
@@ -15076,7 +15069,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <v>42675</v>
       </c>
@@ -15102,7 +15095,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40"/>
       <c r="B547" s="20" t="s">
         <v>516</v>
@@ -15122,7 +15115,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <v>42705</v>
       </c>
@@ -15146,7 +15139,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="49" t="s">
         <v>126</v>
       </c>
@@ -15168,7 +15161,7 @@
       <c r="J549" s="11"/>
       <c r="K549" s="20"/>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <v>42736</v>
       </c>
@@ -15192,7 +15185,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40"/>
       <c r="B551" s="20" t="s">
         <v>517</v>
@@ -15212,7 +15205,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <v>42767</v>
       </c>
@@ -15238,7 +15231,7 @@
         <v>42796</v>
       </c>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40"/>
       <c r="B553" s="20" t="s">
         <v>519</v>
@@ -15258,7 +15251,7 @@
       <c r="J553" s="11"/>
       <c r="K553" s="48"/>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A554" s="40">
         <v>42795</v>
       </c>
@@ -15282,7 +15275,7 @@
         <v>42769</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>142</v>
@@ -15304,7 +15297,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
         <v>42826</v>
       </c>
@@ -15328,7 +15321,7 @@
         <v>42829</v>
       </c>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40"/>
       <c r="B557" s="20" t="s">
         <v>521</v>
@@ -15348,7 +15341,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="48"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <v>42856</v>
       </c>
@@ -15374,7 +15367,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40"/>
       <c r="B559" s="20" t="s">
         <v>142</v>
@@ -15396,7 +15389,7 @@
         <v>42860</v>
       </c>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40"/>
       <c r="B560" s="20" t="s">
         <v>523</v>
@@ -15416,7 +15409,7 @@
       <c r="J560" s="11"/>
       <c r="K560" s="48"/>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <v>42887</v>
       </c>
@@ -15442,7 +15435,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40"/>
       <c r="B562" s="20" t="s">
         <v>117</v>
@@ -15464,7 +15457,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>435</v>
@@ -15484,7 +15477,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="20"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <v>42917</v>
       </c>
@@ -15510,7 +15503,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40"/>
       <c r="B565" s="20" t="s">
         <v>142</v>
@@ -15532,7 +15525,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>482</v>
@@ -15552,7 +15545,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A567" s="40">
         <v>42948</v>
       </c>
@@ -15578,7 +15571,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>142</v>
@@ -15600,7 +15593,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>530</v>
@@ -15620,7 +15613,7 @@
       <c r="J569" s="11"/>
       <c r="K569" s="20"/>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <v>42979</v>
       </c>
@@ -15646,7 +15639,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
         <v>532</v>
@@ -15666,7 +15659,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <v>43009</v>
       </c>
@@ -15692,7 +15685,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>117</v>
@@ -15714,7 +15707,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40"/>
       <c r="B574" s="20" t="s">
         <v>191</v>
@@ -15738,7 +15731,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>535</v>
@@ -15758,7 +15751,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="20"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <v>43040</v>
       </c>
@@ -15778,7 +15771,7 @@
       <c r="J576" s="11"/>
       <c r="K576" s="20"/>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <v>43070</v>
       </c>
@@ -15802,7 +15795,7 @@
       <c r="J577" s="11"/>
       <c r="K577" s="20"/>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="23" t="s">
         <v>45</v>
       </c>
@@ -15820,7 +15813,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="20"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <v>43101</v>
       </c>
@@ -15844,7 +15837,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A580" s="40">
         <v>43132</v>
       </c>
@@ -15866,7 +15859,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>48</v>
@@ -15888,7 +15881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40"/>
       <c r="B582" s="20" t="s">
         <v>46</v>
@@ -15910,7 +15903,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="41">
         <v>43160</v>
       </c>
@@ -15930,7 +15923,7 @@
       <c r="J583" s="12"/>
       <c r="K583" s="15"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <v>43191</v>
       </c>
@@ -15954,7 +15947,7 @@
         <v>43135</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40"/>
       <c r="B585" s="20" t="s">
         <v>52</v>
@@ -15978,7 +15971,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <v>43221</v>
       </c>
@@ -16002,7 +15995,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40"/>
       <c r="B587" s="20" t="s">
         <v>55</v>
@@ -16026,7 +16019,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <v>43252</v>
       </c>
@@ -16052,7 +16045,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A589" s="40"/>
       <c r="B589" s="20" t="s">
         <v>55</v>
@@ -16076,7 +16069,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
         <v>59</v>
@@ -16098,7 +16091,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A591" s="40">
         <v>43282</v>
       </c>
@@ -16118,7 +16111,7 @@
       <c r="J591" s="11"/>
       <c r="K591" s="20"/>
     </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A592" s="40">
         <v>43313</v>
       </c>
@@ -16142,7 +16135,7 @@
         <v>43259</v>
       </c>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A593" s="40">
         <v>43344</v>
       </c>
@@ -16168,7 +16161,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A594" s="40">
         <v>43374</v>
       </c>
@@ -16194,7 +16187,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A595" s="40">
         <v>43405</v>
       </c>
@@ -16220,7 +16213,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A596" s="40">
         <v>43435</v>
       </c>
@@ -16246,7 +16239,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A597" s="49" t="s">
         <v>67</v>
       </c>
@@ -16264,7 +16257,7 @@
       <c r="J597" s="11"/>
       <c r="K597" s="20"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A598" s="40">
         <v>43466</v>
       </c>
@@ -16288,7 +16281,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40"/>
       <c r="B599" s="20" t="s">
         <v>68</v>
@@ -16310,7 +16303,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A600" s="40">
         <v>43497</v>
       </c>
@@ -16334,7 +16327,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
         <v>43525</v>
       </c>
@@ -16356,7 +16349,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A602" s="40"/>
       <c r="B602" s="20" t="s">
         <v>52</v>
@@ -16380,7 +16373,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A603" s="40">
         <v>43556</v>
       </c>
@@ -16404,7 +16397,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A604" s="40"/>
       <c r="B604" s="20" t="s">
         <v>75</v>
@@ -16430,7 +16423,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A605" s="40">
         <v>43586</v>
       </c>
@@ -16450,7 +16443,7 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A606" s="40">
         <v>43617</v>
       </c>
@@ -16474,7 +16467,7 @@
         <v>43652</v>
       </c>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40"/>
       <c r="B607" s="20" t="s">
         <v>52</v>
@@ -16496,7 +16489,7 @@
         <v>43744</v>
       </c>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A608" s="40"/>
       <c r="B608" s="20" t="s">
         <v>79</v>
@@ -16520,7 +16513,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A609" s="40">
         <v>43647</v>
       </c>
@@ -16544,7 +16537,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40"/>
       <c r="B610" s="20" t="s">
         <v>48</v>
@@ -16568,7 +16561,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
         <v>43678</v>
       </c>
@@ -16592,7 +16585,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40"/>
       <c r="B612" s="20" t="s">
         <v>81</v>
@@ -16616,7 +16609,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
         <v>43709</v>
       </c>
@@ -16642,7 +16635,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
         <v>43739</v>
       </c>
@@ -16670,7 +16663,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
         <v>43770</v>
       </c>
@@ -16696,7 +16689,7 @@
         <v>43688</v>
       </c>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
         <v>43800</v>
       </c>
@@ -16720,7 +16713,7 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="49" t="s">
         <v>87</v>
       </c>
@@ -16738,7 +16731,7 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
         <v>43831</v>
       </c>
@@ -16762,7 +16755,7 @@
         <v>43862</v>
       </c>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40"/>
       <c r="B619" s="20" t="s">
         <v>88</v>
@@ -16784,7 +16777,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40"/>
       <c r="B620" s="20" t="s">
         <v>89</v>
@@ -16806,7 +16799,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
         <v>43862</v>
       </c>
@@ -16826,7 +16819,7 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A622" s="40">
         <v>43891</v>
       </c>
@@ -16846,7 +16839,7 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A623" s="40">
         <v>43922</v>
       </c>
@@ -16866,7 +16859,7 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A624" s="40">
         <v>43952</v>
       </c>
@@ -16886,7 +16879,7 @@
       <c r="J624" s="11"/>
       <c r="K624" s="20"/>
     </row>
-    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="625" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A625" s="40">
         <v>43983</v>
       </c>
@@ -16906,7 +16899,7 @@
       <c r="J625" s="11"/>
       <c r="K625" s="20"/>
     </row>
-    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A626" s="40">
         <v>44013</v>
       </c>
@@ -16930,7 +16923,7 @@
         <v>43868</v>
       </c>
     </row>
-    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="627" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A627" s="40"/>
       <c r="B627" s="20" t="s">
         <v>92</v>
@@ -16954,7 +16947,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A628" s="40">
         <v>44044</v>
       </c>
@@ -16974,7 +16967,7 @@
       <c r="J628" s="11"/>
       <c r="K628" s="20"/>
     </row>
-    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="629" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A629" s="40">
         <v>44075</v>
       </c>
@@ -16994,7 +16987,7 @@
       <c r="J629" s="11"/>
       <c r="K629" s="20"/>
     </row>
-    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="630" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A630" s="40">
         <v>44105</v>
       </c>
@@ -17014,7 +17007,7 @@
       <c r="J630" s="11"/>
       <c r="K630" s="20"/>
     </row>
-    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="631" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A631" s="40">
         <v>44136</v>
       </c>
@@ -17034,7 +17027,7 @@
       <c r="J631" s="11"/>
       <c r="K631" s="20"/>
     </row>
-    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="632" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A632" s="40">
         <v>44166</v>
       </c>
@@ -17058,7 +17051,7 @@
       <c r="J632" s="11"/>
       <c r="K632" s="20"/>
     </row>
-    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="633" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A633" s="49" t="s">
         <v>94</v>
       </c>
@@ -17076,7 +17069,7 @@
       <c r="J633" s="11"/>
       <c r="K633" s="20"/>
     </row>
-    <row r="634" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A634" s="40">
         <v>44197</v>
       </c>
@@ -17096,7 +17089,7 @@
       <c r="J634" s="11"/>
       <c r="K634" s="20"/>
     </row>
-    <row r="635" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A635" s="40">
         <v>44228</v>
       </c>
@@ -17122,7 +17115,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="636" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="636" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A636" s="40">
         <v>44256</v>
       </c>
@@ -17142,7 +17135,7 @@
       <c r="J636" s="11"/>
       <c r="K636" s="20"/>
     </row>
-    <row r="637" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="637" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A637" s="40">
         <v>44287</v>
       </c>
@@ -17162,7 +17155,7 @@
       <c r="J637" s="11"/>
       <c r="K637" s="20"/>
     </row>
-    <row r="638" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A638" s="40">
         <v>44317</v>
       </c>
@@ -17182,7 +17175,7 @@
       <c r="J638" s="11"/>
       <c r="K638" s="20"/>
     </row>
-    <row r="639" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="639" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A639" s="40">
         <v>44348</v>
       </c>
@@ -17202,7 +17195,7 @@
       <c r="J639" s="11"/>
       <c r="K639" s="20"/>
     </row>
-    <row r="640" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="640" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A640" s="40">
         <v>44378</v>
       </c>
@@ -17226,7 +17219,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="641" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="641" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A641" s="40"/>
       <c r="B641" s="20" t="s">
         <v>55</v>
@@ -17248,7 +17241,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="642" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="642" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A642" s="40"/>
       <c r="B642" s="20" t="s">
         <v>48</v>
@@ -17272,7 +17265,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="643" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A643" s="40">
         <v>44409</v>
       </c>
@@ -17298,7 +17291,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="644" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="644" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A644" s="40">
         <v>44440</v>
       </c>
@@ -17318,7 +17311,7 @@
       <c r="J644" s="11"/>
       <c r="K644" s="20"/>
     </row>
-    <row r="645" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="645" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A645" s="40">
         <v>44470</v>
       </c>
@@ -17344,7 +17337,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="646" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A646" s="40">
         <v>44501</v>
       </c>
@@ -17370,7 +17363,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="647" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="647" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A647" s="40">
         <v>44531</v>
       </c>
@@ -17396,7 +17389,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="648" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="648" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A648" s="49" t="s">
         <v>87</v>
       </c>
@@ -17414,7 +17407,7 @@
       <c r="J648" s="11"/>
       <c r="K648" s="20"/>
     </row>
-    <row r="649" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A649" s="40">
         <v>44562</v>
       </c>
@@ -17438,7 +17431,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="650" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A650" s="40">
         <v>44593</v>
       </c>
@@ -17458,7 +17451,7 @@
       <c r="J650" s="11"/>
       <c r="K650" s="20"/>
     </row>
-    <row r="651" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A651" s="40">
         <v>44621</v>
       </c>
@@ -17482,7 +17475,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="652" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A652" s="40">
         <v>44652</v>
       </c>
@@ -17502,7 +17495,7 @@
       <c r="J652" s="11"/>
       <c r="K652" s="20"/>
     </row>
-    <row r="653" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A653" s="40">
         <v>44682</v>
       </c>
@@ -17522,7 +17515,7 @@
       <c r="J653" s="11"/>
       <c r="K653" s="20"/>
     </row>
-    <row r="654" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="654" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A654" s="40">
         <v>44713</v>
       </c>
@@ -17548,7 +17541,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="655" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="655" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A655" s="40">
         <v>44743</v>
       </c>
@@ -17574,7 +17567,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="656" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="656" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A656" s="40">
         <v>44774</v>
       </c>
@@ -17600,7 +17593,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="657" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="657" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A657" s="40"/>
       <c r="B657" s="20" t="s">
         <v>112</v>
@@ -17622,7 +17615,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="658" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="658" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A658" s="40">
         <v>44805</v>
       </c>
@@ -17648,7 +17641,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="659" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="659" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A659" s="40"/>
       <c r="B659" s="20" t="s">
         <v>54</v>
@@ -17670,7 +17663,7 @@
         <v>44832</v>
       </c>
     </row>
-    <row r="660" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="660" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A660" s="40">
         <v>44835</v>
       </c>
@@ -17696,7 +17689,7 @@
         <v>44851</v>
       </c>
     </row>
-    <row r="661" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="661" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A661" s="40"/>
       <c r="B661" s="20" t="s">
         <v>48</v>
@@ -17718,7 +17711,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="662" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="662" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A662" s="40"/>
       <c r="B662" s="20" t="s">
         <v>52</v>
@@ -17740,7 +17733,7 @@
         <v>44845</v>
       </c>
     </row>
-    <row r="663" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="663" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A663" s="40">
         <v>44866</v>
       </c>
@@ -17766,7 +17759,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="664" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="664" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A664" s="40">
         <v>44896</v>
       </c>
@@ -17792,7 +17785,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="665" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="665" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A665" s="49" t="s">
         <v>114</v>
       </c>
@@ -17810,7 +17803,7 @@
       <c r="J665" s="11"/>
       <c r="K665" s="20"/>
     </row>
-    <row r="666" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="666" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A666" s="40">
         <v>44927</v>
       </c>
@@ -17834,7 +17827,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="667" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="667" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A667" s="40"/>
       <c r="B667" s="20" t="s">
         <v>117</v>
@@ -17856,7 +17849,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="668" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="668" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A668" s="40"/>
       <c r="B668" s="20" t="s">
         <v>117</v>
@@ -17878,7 +17871,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="669" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="669" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A669" s="40">
         <v>44958</v>
       </c>
@@ -17902,7 +17895,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="670" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="670" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A670" s="40"/>
       <c r="B670" s="20" t="s">
         <v>55</v>
@@ -17924,7 +17917,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="671" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="671" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A671" s="40">
         <v>44986</v>
       </c>
@@ -17950,7 +17943,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="672" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="672" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A672" s="40"/>
       <c r="B672" s="20" t="s">
         <v>54</v>
@@ -17972,7 +17965,7 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="673" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="673" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A673" s="40">
         <v>45017</v>
       </c>
@@ -17998,7 +17991,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="674" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="674" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A674" s="40"/>
       <c r="B674" s="20" t="s">
         <v>55</v>
@@ -18020,20 +18013,22 @@
         <v>124</v>
       </c>
     </row>
-    <row r="675" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="675" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A675" s="40">
         <v>45047</v>
       </c>
       <c r="B675" s="20" t="s">
         <v>373</v>
       </c>
-      <c r="C675" s="13"/>
+      <c r="C675" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D675" s="39"/>
       <c r="E675" s="9"/>
       <c r="F675" s="20"/>
-      <c r="G675" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G675" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H675" s="39">
         <v>5</v>
@@ -18044,20 +18039,22 @@
         <v>566</v>
       </c>
     </row>
-    <row r="676" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="676" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A676" s="40">
         <v>45078</v>
       </c>
       <c r="B676" s="20" t="s">
         <v>117</v>
       </c>
-      <c r="C676" s="13"/>
+      <c r="C676" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D676" s="39"/>
       <c r="E676" s="9"/>
       <c r="F676" s="20"/>
-      <c r="G676" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G676" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H676" s="39">
         <v>2</v>
@@ -18068,7 +18065,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="677" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="677" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A677" s="40"/>
       <c r="B677" s="20" t="s">
         <v>117</v>
@@ -18090,7 +18087,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="678" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="678" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A678" s="40"/>
       <c r="B678" s="20" t="s">
         <v>176</v>
@@ -18112,11 +18109,13 @@
         <v>569</v>
       </c>
     </row>
-    <row r="679" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="679" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A679" s="40">
         <v>45108</v>
       </c>
-      <c r="B679" s="20"/>
+      <c r="B679" s="20" t="s">
+        <v>117</v>
+      </c>
       <c r="C679" s="13"/>
       <c r="D679" s="39"/>
       <c r="E679" s="9"/>
@@ -18125,12 +18124,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H679" s="39"/>
+      <c r="H679" s="39">
+        <v>2</v>
+      </c>
       <c r="I679" s="9"/>
       <c r="J679" s="11"/>
-      <c r="K679" s="20"/>
-    </row>
-    <row r="680" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K679" s="20" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="680" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A680" s="40">
         <v>45139</v>
       </c>
@@ -18148,7 +18151,7 @@
       <c r="J680" s="11"/>
       <c r="K680" s="20"/>
     </row>
-    <row r="681" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="681" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A681" s="40">
         <v>45170</v>
       </c>
@@ -18166,7 +18169,7 @@
       <c r="J681" s="11"/>
       <c r="K681" s="20"/>
     </row>
-    <row r="682" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="682" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A682" s="40">
         <v>45200</v>
       </c>
@@ -18184,7 +18187,7 @@
       <c r="J682" s="11"/>
       <c r="K682" s="20"/>
     </row>
-    <row r="683" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="683" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A683" s="40">
         <v>45231</v>
       </c>
@@ -18202,7 +18205,7 @@
       <c r="J683" s="11"/>
       <c r="K683" s="20"/>
     </row>
-    <row r="684" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="684" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A684" s="40">
         <v>45261</v>
       </c>
@@ -18220,7 +18223,7 @@
       <c r="J684" s="11"/>
       <c r="K684" s="20"/>
     </row>
-    <row r="685" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="685" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A685" s="40">
         <v>45292</v>
       </c>
@@ -18238,7 +18241,7 @@
       <c r="J685" s="11"/>
       <c r="K685" s="20"/>
     </row>
-    <row r="686" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="686" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A686" s="40">
         <v>45323</v>
       </c>
@@ -18256,7 +18259,7 @@
       <c r="J686" s="11"/>
       <c r="K686" s="20"/>
     </row>
-    <row r="687" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="687" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A687" s="40">
         <v>45352</v>
       </c>
@@ -18274,7 +18277,7 @@
       <c r="J687" s="11"/>
       <c r="K687" s="20"/>
     </row>
-    <row r="688" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="688" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A688" s="40">
         <v>45383</v>
       </c>
@@ -18292,7 +18295,7 @@
       <c r="J688" s="11"/>
       <c r="K688" s="20"/>
     </row>
-    <row r="689" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="689" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A689" s="40">
         <v>45413</v>
       </c>
@@ -18310,7 +18313,7 @@
       <c r="J689" s="11"/>
       <c r="K689" s="20"/>
     </row>
-    <row r="690" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="690" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A690" s="40">
         <v>45444</v>
       </c>
@@ -18328,7 +18331,7 @@
       <c r="J690" s="11"/>
       <c r="K690" s="20"/>
     </row>
-    <row r="691" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="691" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A691" s="40">
         <v>45474</v>
       </c>
@@ -18346,7 +18349,7 @@
       <c r="J691" s="11"/>
       <c r="K691" s="20"/>
     </row>
-    <row r="692" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="692" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A692" s="40">
         <v>45505</v>
       </c>
@@ -18364,7 +18367,7 @@
       <c r="J692" s="11"/>
       <c r="K692" s="20"/>
     </row>
-    <row r="693" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A693" s="40">
         <v>45536</v>
       </c>
@@ -18382,7 +18385,7 @@
       <c r="J693" s="11"/>
       <c r="K693" s="20"/>
     </row>
-    <row r="694" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A694" s="40">
         <v>45566</v>
       </c>
@@ -18400,7 +18403,7 @@
       <c r="J694" s="11"/>
       <c r="K694" s="20"/>
     </row>
-    <row r="695" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A695" s="40">
         <v>45597</v>
       </c>
@@ -18418,7 +18421,7 @@
       <c r="J695" s="11"/>
       <c r="K695" s="20"/>
     </row>
-    <row r="696" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A696" s="40">
         <v>45627</v>
       </c>
@@ -18436,7 +18439,7 @@
       <c r="J696" s="11"/>
       <c r="K696" s="20"/>
     </row>
-    <row r="697" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A697" s="40">
         <v>45658</v>
       </c>
@@ -18454,7 +18457,7 @@
       <c r="J697" s="11"/>
       <c r="K697" s="20"/>
     </row>
-    <row r="698" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A698" s="40">
         <v>45689</v>
       </c>
@@ -18472,7 +18475,7 @@
       <c r="J698" s="11"/>
       <c r="K698" s="20"/>
     </row>
-    <row r="699" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A699" s="40">
         <v>45717</v>
       </c>
@@ -18490,7 +18493,7 @@
       <c r="J699" s="11"/>
       <c r="K699" s="20"/>
     </row>
-    <row r="700" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A700" s="40">
         <v>45748</v>
       </c>
@@ -18508,7 +18511,7 @@
       <c r="J700" s="11"/>
       <c r="K700" s="20"/>
     </row>
-    <row r="701" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A701" s="40">
         <v>45778</v>
       </c>
@@ -18526,7 +18529,7 @@
       <c r="J701" s="11"/>
       <c r="K701" s="20"/>
     </row>
-    <row r="702" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A702" s="40">
         <v>45809</v>
       </c>
@@ -18544,7 +18547,7 @@
       <c r="J702" s="11"/>
       <c r="K702" s="20"/>
     </row>
-    <row r="703" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A703" s="40">
         <v>45839</v>
       </c>
@@ -18562,7 +18565,7 @@
       <c r="J703" s="11"/>
       <c r="K703" s="20"/>
     </row>
-    <row r="704" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A704" s="40"/>
       <c r="B704" s="20"/>
       <c r="C704" s="13"/>
@@ -18578,7 +18581,7 @@
       <c r="J704" s="11"/>
       <c r="K704" s="20"/>
     </row>
-    <row r="705" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="705" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A705" s="40"/>
       <c r="B705" s="20"/>
       <c r="C705" s="13"/>
@@ -18594,7 +18597,7 @@
       <c r="J705" s="11"/>
       <c r="K705" s="20"/>
     </row>
-    <row r="706" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="706" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A706" s="40"/>
       <c r="B706" s="20"/>
       <c r="C706" s="13"/>
@@ -18610,7 +18613,7 @@
       <c r="J706" s="11"/>
       <c r="K706" s="20"/>
     </row>
-    <row r="707" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="707" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A707" s="40"/>
       <c r="B707" s="20"/>
       <c r="C707" s="13"/>
@@ -18626,7 +18629,7 @@
       <c r="J707" s="11"/>
       <c r="K707" s="20"/>
     </row>
-    <row r="708" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="708" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A708" s="40"/>
       <c r="B708" s="20"/>
       <c r="C708" s="13"/>
@@ -18642,7 +18645,7 @@
       <c r="J708" s="11"/>
       <c r="K708" s="20"/>
     </row>
-    <row r="709" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="709" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A709" s="41"/>
       <c r="B709" s="15"/>
       <c r="C709" s="42"/>
@@ -18674,10 +18677,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -18700,28 +18703,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A30" sqref="A30:A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
@@ -18734,7 +18737,7 @@
       <c r="K1" s="62"/>
       <c r="L1" s="62"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -18763,7 +18766,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -18787,17 +18790,17 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -18818,7 +18821,7 @@
       <c r="K6" s="63"/>
       <c r="L6" s="63"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -18845,7 +18848,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -18871,7 +18874,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -18897,7 +18900,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -18923,7 +18926,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -18949,7 +18952,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -18975,7 +18978,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -19001,7 +19004,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -19027,7 +19030,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -19047,7 +19050,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -19067,7 +19070,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -19087,7 +19090,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -19108,7 +19111,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -19129,7 +19132,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -19150,7 +19153,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -19171,7 +19174,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -19192,7 +19195,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -19213,7 +19216,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -19234,7 +19237,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -19255,7 +19258,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -19276,7 +19279,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -19297,7 +19300,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -19318,7 +19321,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -19339,7 +19342,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -19360,7 +19363,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -19381,7 +19384,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -19402,7 +19405,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -19423,7 +19426,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -19444,7 +19447,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -19465,7 +19468,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -19486,7 +19489,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -19507,7 +19510,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -19516,7 +19519,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -19525,7 +19528,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -19534,7 +19537,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -19543,7 +19546,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -19552,7 +19555,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -19561,7 +19564,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -19570,7 +19573,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -19579,7 +19582,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -19588,7 +19591,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -19597,7 +19600,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -19606,7 +19609,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -19615,7 +19618,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -19624,7 +19627,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -19633,7 +19636,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -19642,7 +19645,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -19651,7 +19654,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -19660,7 +19663,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -19669,7 +19672,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -19678,7 +19681,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -19687,7 +19690,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -19696,7 +19699,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -19705,7 +19708,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -19714,7 +19717,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -19723,7 +19726,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -19732,7 +19735,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -19741,7 +19744,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -19750,7 +19753,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -19759,7 +19762,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -19768,7 +19771,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
